--- a/event excel.xlsx
+++ b/event excel.xlsx
@@ -705,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/event excel.xlsx
+++ b/event excel.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17085" windowHeight="3630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17085" windowHeight="3630" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="event" sheetId="1" r:id="rId1"/>
+    <sheet name="add info" sheetId="2" r:id="rId2"/>
+    <sheet name="email" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">
 Event Title:
@@ -82,75 +84,6 @@
   </si>
   <si>
     <t>EMAIL</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IMBALANCE EMAIL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Dear participants,
-Thank you for registering with us for the upcoming XXXXX event. Here's an important update regarding the event.
-We are currently experiencing an imbalance in the gender ratio among our participants, specifically with a shortage of male participants. Although we have received expressions of interest from some male individuals, they have yet to complete their registration, and we remain hopeful.
-Please stay tuned for our update this Friday evening.
-In the event of a cancellation, rest assured that we will provide a full refund.
-Sincerely,
-Jamaica
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EVENT EMAIL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Dear Participant,
-Thank you for being a part of our upcoming XXXXX  event ! 
-This message serves as a reminder. We look forward to providing you with a unique and memorable experience. See you soon!
-On the day of the event, you can contact our staff @ 87601459 or on WhatsApp https://wa.me/6587601459
-(Note: This is a dedicated tel nr that will only be activated on the day of the event to facilitate any logisitical issues)
-Date / Time: 07 Oct (Sat) @ 6:00 pm
-Place: Yorimichi Yakitori Izakaya
-Address: 6001 Beach Rd, #01-02 GOLDEN MILE TOWER, Singapore 199589
-Verification doc: Singpass
-Event registration: Screen shot of ticket.
-Below is a guide for those travelling from the train station
-Thanks,
-Jamaica G. 
-https://www.streetdirectory.com/sg/golden-mile-complex/5001-beach-road-199588/12858_15512.html
-</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Event Brite (GREEN)
@@ -199,22 +132,6 @@
   </si>
   <si>
     <t>KTV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event Title:
-Singles Encore Dining 
-Event Summary:
-Encore event aims at those who believe in second chances in love
-Event:
-Encore event aims at those who believe in second chances. Let your heart be open to the gentle possibility of love's encore. If you're divorced, a single parent, or simply unattached, Encore provides the perfect platform for you to connect, mingle, and potentially find that remarkable person who resonates with your unique journey.
-Dining session.
-We anticipate an attendance of 10-12 participants.
-Event facilitation will be available to ensure participants have the opportunity to interact and mingle with each other.
-There is a minimum spending requirement of $20 at the restaurant.
-Requirements:
-Participants are shall be of unmarried marital status 
-Participants are to present proof of the abovementioned requirements (eg, Singpass). 
-</t>
   </si>
   <si>
     <t>ENCORE</t>
@@ -240,11 +157,6 @@
 </t>
   </si>
   <si>
-    <t>Important. Please read:
-This event will only proceed when the number of participants has reached and the gender ratio are relatively balanced. 
-We will notify you to proceed with the payment (see below price) through Paynow. This step secures your reservation and allows us to effectively plan for the event and reduce the possibility of no-shows</t>
-  </si>
-  <si>
     <t xml:space="preserve">Important. Please read: 
 Please be aware that, given the dynamic nature of dance workshops, there may be an uneven gender ratio.
 As we have different events running concurrently, we would like you to join us for a get together session with attendees from the other event. (To be advised on the day of the event)
@@ -323,14 +235,42 @@
 </t>
   </si>
   <si>
+    <t>ADD INFO</t>
+  </si>
+  <si>
     <t xml:space="preserve">Important. Please read:
 This event will only Proceed when the number of participants has reached and the gender ratio are relatively balanced. 
-We will notify you to proceed with the Payment (see below price) through Paynow. This step secures your reservation and allows us to effectively plan for the event and reduce the possibility of no-shows. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Additional Information:
+</t>
+  </si>
+  <si>
+    <t>VENDOR</t>
+  </si>
+  <si>
+    <t>Hi
+I'm Jamaica, and I specialize in organizing events for singles. In our ongoing commitment to offer innovative experiences for the herbivore singles (8-12pax), we are interested in exploring the possibility of hosting a dining event at your venue.
+We are planning to make this event on a Sunday afternoon in Dec.
+Please let us know if this arrangement works for you?
+Thanks
+Jamaica G.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event Title:
+Singles Encore Dining 
+Event Summary:
+For those who believe in second chances in love
+Event:
+Encore event aims at those who believe in second chances. Let your heart be open to the gentle possibility of love's encore. If you're divorced, a single parent, or simply unattached, Encore provides the perfect platform for you to connect, mingle, and potentially find that remarkable person who resonates with your unique journey.
+Dining session.
+We anticipate an attendance of 10-12 participants.
+Event facilitation will be available to ensure participants have the opportunity to interact and mingle with each other.
+There is a minimum spending requirement of $20 at the restaurant.
+Requirements:
+Participants are shall be of unmarried marital status 
+Participants are to present proof of the abovementioned requirements (eg, Singpass). 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional Information:
 The arrangement of the event may be adjusted to accommodate the number of participants.
 If you're slightly outside the age range, please check with us before purchasing.
 Contact us: i﻿nnersoulverse@gmail.com | Visit us: www.innersoulverse.com
@@ -344,30 +284,92 @@
 </t>
   </si>
   <si>
-    <t>ADD INFO</t>
-  </si>
-  <si>
     <t xml:space="preserve">Important. Please read:
 This event will only Proceed when the number of participants has reached and the gender ratio are relatively balanced. 
-</t>
-  </si>
-  <si>
-    <t>VENDOR</t>
-  </si>
-  <si>
-    <t>Hi
-I'm Jamaica, and I specialize in organizing events for singles. In our ongoing commitment to offer innovative experiences for the herbivore singles (8-12pax), we are interested in exploring the possibility of hosting a dining event at your venue.
-We are planning to make this event on a Sunday afternoon in Dec.
-Please let us know if this arrangement works for you?
-Thanks
-Jamaica G.</t>
+We will notify you to proceed with the Payment (see below price) through Paynow. This step secures your reservation and allows us to effectively plan for the event and reduce the possibility of no-shows. 
+</t>
+  </si>
+  <si>
+    <t>IMBALANCE EMAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear attendees,
+Thank you for registering with us for the upcoming XXXXX event. Here's an important update regarding the event.
+We are currently experiencing an imbalance in the gender ratio among our participants, specifically with a shortage of male participants. Although we have received expressions of interest from some male individuals, they have yet to complete their registration, and we remain hopeful.
+Please stay tuned for our update this Friday evening.
+In the event of a cancellation, rest assured that we will provide a full refund.
+Sincerely,
+Jamaica
+</t>
+  </si>
+  <si>
+    <t>Important. Please read:
+This event will only Proceed when the number of participants has reached and the gender ratio are relatively balanced. 
+There is a minimum spending requirement of $20 at the restaurant.
+Upon your attendance, you will receive a refund for the ticket fare within 3 business days. This measure is implemented solely to avoid instances of non-attendance.</t>
+  </si>
+  <si>
+    <t>GOLF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event Title::
+Singles Mystery Golf
+Event Summary:
+Mystery solving and mini golfing? Who knows what unexpected adventures may unfold?
+Event:
+It's time to spice up your dating life and create memories that will last a lifetime. Embrace the golfing and mystery. No prior golf experience needed. 
+Mini golf session
+We anticipate an attendance of 8-10 participants.
+Rotation occur mid way through the game.
+Requirements:
+For ladies age 25 - 42.
+For gentlemen age 25 - 45.
+Participants are shall be of unmarried marital status 
+Participants are to present proof of the abovementioned requirements (eg, Singpass). 
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[EVENT CONFIRMED] Singles Ice Dreams (Ice-Cream Workshop)
+Dear attendees,
+Thank you for being a part of Singles Ice Dreams (Ice-Cream Workshop) ! 
+On the day of the event, you can contact our staff @ 87601459 or on WhatsApp https://wa.me/6587601459
+(Note: This is a dedicated tel nr that will only be activated on the day of the event to facilitate any logisitical issues)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Date / Time: 26 Dec (Sun) @ 2:00 pm
+Place: Ice Cream Chefs
+Address: 12 Jln Kuras, Singapore 577727</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Verification doc: Singpass
+Event registration: Screen shot of ticket.
+Thanks,
+Jamaica G. </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,6 +393,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -400,7 +409,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -408,11 +417,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -423,6 +473,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,125 +763,190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="30.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="2" customWidth="1"/>
-    <col min="5" max="10" width="9.140625" style="2"/>
-    <col min="11" max="11" width="24.140625" style="2" customWidth="1"/>
-    <col min="12" max="20" width="9.140625" style="2"/>
-    <col min="21" max="21" width="18.7109375" style="2" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="22.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="2" customWidth="1"/>
+    <col min="3" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="24.140625" style="2" customWidth="1"/>
+    <col min="10" max="18" width="9.140625" style="2"/>
+    <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="3" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="66.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="82.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="U1" s="3" t="s">
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="78.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="65.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="C1" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="300" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/event excel.xlsx
+++ b/event excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17085" windowHeight="3630" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17085" windowHeight="3630" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="event" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">
 Event Title:
@@ -291,16 +291,6 @@
   </si>
   <si>
     <t>IMBALANCE EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear attendees,
-Thank you for registering with us for the upcoming XXXXX event. Here's an important update regarding the event.
-We are currently experiencing an imbalance in the gender ratio among our participants, specifically with a shortage of male participants. Although we have received expressions of interest from some male individuals, they have yet to complete their registration, and we remain hopeful.
-Please stay tuned for our update this Friday evening.
-In the event of a cancellation, rest assured that we will provide a full refund.
-Sincerely,
-Jamaica
-</t>
   </si>
   <si>
     <t>Important. Please read:
@@ -362,6 +352,49 @@
 Event registration: Screen shot of ticket.
 Thanks,
 Jamaica G. </t>
+    </r>
+  </si>
+  <si>
+    <t>[EVENT UPDATE]
+Dear attendees,
+An update of the upcoming xxxx event. 
+We are currently experiencing an imbalance in the gender ratio among our participants. Although we have received expressions of interest from some individuals, they have yet to complete their registration, and we remain hopeful.
+Please stay tuned for our update this Friday evening.
+In the event of a cancellation, rest assured that we will provide a full refund.
+Sincerely,
+Jamaica</t>
+  </si>
+  <si>
+    <t>CANCELLED EMAIL</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[EVENT CANCELLED]
+Dear attendees,
+It is with disappointment that we announce the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cancellation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the event due to an imbalance in the gender ratio. Refunds will be processed. And you will received them within 3-5 working days (as advised by the platform)
+We sincerely thank you for your participation in our event and hope to see you again in the future.
+Sincerely,
+Jamaica</t>
     </r>
   </si>
 </sst>
@@ -476,13 +509,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -808,7 +841,7 @@
         <v>18</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
@@ -840,7 +873,7 @@
         <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
@@ -863,7 +896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
@@ -885,7 +918,7 @@
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -893,11 +926,11 @@
       <c r="A3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="7"/>
     </row>
     <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="4"/>
     </row>
@@ -914,10 +947,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,28 +958,35 @@
     <col min="1" max="1" width="78.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="65.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="68.140625" customWidth="1"/>
+    <col min="4" max="4" width="56.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="300" x14ac:dyDescent="0.25">
+      <c r="D1" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="300" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>29</v>
+      <c r="D2" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/event excel.xlsx
+++ b/event excel.xlsx
@@ -26,25 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t xml:space="preserve">
-Event Title:
-Singles Ice Dreams (Ice-Cream Workshop)
-Event Summary:
-Share scoops of laughs in a Fun, Frozen, &amp; Flavorful Ice Cream Workshop
-Event:
-This workshop is in partnership with MOMOLATO. https://momolato.com/
- different flavours to choose from. 
-Vegan flavour option available
-We anticipate an attendance of 8-10 participants.
-Requirements:
-For ladies age 25 - 42.
-For gentlemen age 28 - 45.
-Participants are shall be of unmarried marital status 
-Participants are to present proof of the abovementioned requirements (eg, Singpass). 
-</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>IMPORTANT</t>
   </si>
@@ -86,45 +68,9 @@
     <t>EMAIL</t>
   </si>
   <si>
-    <t xml:space="preserve">Event Brite (GREEN)
-Event Title:
-Singles Vegan Dining
-Event Summary:
-A dining event designed for vegan singles to meet, mingle, and make plantiful connections.
-Event:
-Find that herbivore who shares your values and love for all things plant-based. Elevate your romance with the power of plant-powered connections while savouring guilt-free vegan cuisine 
-Curated dinner. Our talented chefs have curated a menu (appetizer, main, side, drinks, dessert) that celebrates the bounty of nature's goodness that is entirely plant-based and free from animal products such as eggs, dairy, and more.
-We anticipate an attendance of 10-12 participants.
-Rotation occur approximately every 10-12 minutes.
-The event will only proceed when the gender ratio are relatively balanced. 
-Requirements:
-For ladies age 25 - 40.
-For gentlemen age 30 - 45.
-Participants are shall be of unmarried marital status 
-Participants are to present proof of the abovementioned requirements (eg, Singpass). 
-</t>
-  </si>
-  <si>
     <t>ICE</t>
   </si>
   <si>
-    <t xml:space="preserve">Event Title:
-Singles Wolf Down Buffet Dining
-Event Summary:
-This event is specially designed for singles buffet aficionados and those who relish the tantalizing aroma and flavors of yakitori. 
-Event:
-This event is specially designed for buffet aficionados and those who relish the tantalizing aroma and flavors of yakitori. 
-A la carte buffet. Ice water will be provided.
-We anticipate an attendance of 10-12 participants.
-Facilitation for participants to mingle.
-Requirements:
-For ladies age 25 - 42.
-For gentlemen age 28 - 45.
-Participants are shall be of unmarried marital status 
-Participants are to present proof of the abovementioned requirements (eg, Singpass). 
-</t>
-  </si>
-  <si>
     <t>WOLD</t>
   </si>
   <si>
@@ -135,45 +81,6 @@
   </si>
   <si>
     <t>ENCORE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event Title:
-Singles Dining In The Dark
-Event Summary:
-Experience a unique dining in the dark dating event, where our taste buds awaken and our genuine connection forms
-Event:
-Dining event.
-This event takes place in a completely dark venue.
-8﻿ dish meal is provided. The chef determines the food served, leading to variations from one event to another.
-Trained staff will be available to assist participants in navigating through the darkness.
-We anticipate an attendance of 10-14 participants.
-Rotation occur approximately every 8-10 minutes.
-Dietary allergies and dietary requirements can be arranged.
-The event will only proceed when the gender ratio are relatively balanced. 
-Requirements:
-For gentlemen age 30-42.
-For ladies age 28-40.
-Participants are shall be of unmarried marital status 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Important. Please read: 
-Please be aware that, given the dynamic nature of dance workshops, there may be an uneven gender ratio.
-As we have different events running concurrently, we would like you to join us for a get together session with attendees from the other event. (To be advised on the day of the event)
-Event Title:
-Singles Two Left (Partner Dance Workshop)
-Event Summary:
-An upbeat and enjoyable partner dance session with singles
-Event:
-This workshop is in partnership with JUMP FIVE DANCE ACADEMY. https://www.jumpfivedance.com/adults
-This workshop is cheoreographed to be a light and fun partner dance session.
-We anticipate an attendance of 6-10 participants.
-Requirements:
-For ladies age 25 - 42.
-For gentlemen age 28 - 45.
-Participants are shall be of unmarried marital status 
-Participants are to present proof of the abovementioned requirements (eg, Singpass). 
-</t>
   </si>
   <si>
     <t>DANCE</t>
@@ -200,47 +107,7 @@
     <t>GLOW</t>
   </si>
   <si>
-    <t xml:space="preserve">Event Title::
-Singles karaoke
-Event Summary:
-Singles karaoke, Food &amp; drinks, set against a backdrop of exciting lighting
-Event:
-Showcase your vocal talents. Or simply sit back and relish the event’s entertainment. Enhanced by a backdrop of exhilarating lighting, you're in for an absolute blast
-Karaoke session.
-Food orders will commence at 5pm onwards.
-We anticipate an attendance of 10-12 participants.
-Rotation occur approximately every 10-12 minutes.
-There is a minimum spending requirement of $20 from the restaurant. 
-Requirements:
-For ladies age 25 - 42.
-For gentlemen age 25 - 42.
-Participants are shall be of unmarried marital status 
-Participants are to present proof of the abovementioned requirements (eg, Singpass). 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event Title:
-Singles Smiles Aglow Dining
-Event Summary:
-A captivating dining experience through an illuminated ambience
-Event:
-- Dinner includes starters, mains, yakitori, and dessert
-- We anticipate an attendance of 8-12 participants.
-- Rotation occur approximately every 10-12 minutes.
-Requirements:
-For ladies age 25 - 42.
-For gentlemen age 28 - 45.
-Participants are shall be of unmarried marital status 
-Participants are to present proof of the abovementioned requirements (eg, Singpass). 
-</t>
-  </si>
-  <si>
     <t>ADD INFO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Important. Please read:
-This event will only Proceed when the number of participants has reached and the gender ratio are relatively balanced. 
-</t>
   </si>
   <si>
     <t>VENDOR</t>
@@ -254,105 +121,10 @@
 Jamaica G.</t>
   </si>
   <si>
-    <t xml:space="preserve">Event Title:
-Singles Encore Dining 
-Event Summary:
-For those who believe in second chances in love
-Event:
-Encore event aims at those who believe in second chances. Let your heart be open to the gentle possibility of love's encore. If you're divorced, a single parent, or simply unattached, Encore provides the perfect platform for you to connect, mingle, and potentially find that remarkable person who resonates with your unique journey.
-Dining session.
-We anticipate an attendance of 10-12 participants.
-Event facilitation will be available to ensure participants have the opportunity to interact and mingle with each other.
-There is a minimum spending requirement of $20 at the restaurant.
-Requirements:
-Participants are shall be of unmarried marital status 
-Participants are to present proof of the abovementioned requirements (eg, Singpass). 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional Information:
-The arrangement of the event may be adjusted to accommodate the number of participants.
-If you're slightly outside the age range, please check with us before purchasing.
-Contact us: i﻿nnersoulverse@gmail.com | Visit us: www.innersoulverse.com
-Cancellation and refund:
-Cancellations made within 24 hours of purchase             : Refund 90% of the ticket price.
-Cancellations made up to 7 days prior to the event         : Refund 50% of the ticket price.
-Cancellations made up to 3 days prior to the event          : Refund 15% of the ticket price.
-Participants who don't meet the event's requirements   : No Refund
-Cancellation of event by organizer                 : Full refund
-Please allow up to 3 business days for the refund.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Important. Please read:
-This event will only Proceed when the number of participants has reached and the gender ratio are relatively balanced. 
-We will notify you to proceed with the Payment (see below price) through Paynow. This step secures your reservation and allows us to effectively plan for the event and reduce the possibility of no-shows. 
-</t>
-  </si>
-  <si>
     <t>IMBALANCE EMAIL</t>
   </si>
   <si>
-    <t>Important. Please read:
-This event will only Proceed when the number of participants has reached and the gender ratio are relatively balanced. 
-There is a minimum spending requirement of $20 at the restaurant.
-Upon your attendance, you will receive a refund for the ticket fare within 3 business days. This measure is implemented solely to avoid instances of non-attendance.</t>
-  </si>
-  <si>
     <t>GOLF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event Title::
-Singles Mystery Golf
-Event Summary:
-Mystery solving and mini golfing? Who knows what unexpected adventures may unfold?
-Event:
-It's time to spice up your dating life and create memories that will last a lifetime. Embrace the golfing and mystery. No prior golf experience needed. 
-Mini golf session
-We anticipate an attendance of 8-10 participants.
-Rotation occur mid way through the game.
-Requirements:
-For ladies age 25 - 42.
-For gentlemen age 25 - 45.
-Participants are shall be of unmarried marital status 
-Participants are to present proof of the abovementioned requirements (eg, Singpass). 
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[EVENT CONFIRMED] Singles Ice Dreams (Ice-Cream Workshop)
-Dear attendees,
-Thank you for being a part of Singles Ice Dreams (Ice-Cream Workshop) ! 
-On the day of the event, you can contact our staff @ 87601459 or on WhatsApp https://wa.me/6587601459
-(Note: This is a dedicated tel nr that will only be activated on the day of the event to facilitate any logisitical issues)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Date / Time: 26 Dec (Sun) @ 2:00 pm
-Place: Ice Cream Chefs
-Address: 12 Jln Kuras, Singapore 577727</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Verification doc: Singpass
-Event registration: Screen shot of ticket.
-Thanks,
-Jamaica G. </t>
-    </r>
   </si>
   <si>
     <t>[EVENT UPDATE]
@@ -397,12 +169,331 @@
 Jamaica</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">We will notify you to proceed with the Payment (see below price) through Paynow. This step secures your reservation and allows us to effectively plan for the event and reduce the possibility of no-shows. 
+</t>
+  </si>
+  <si>
+    <t>Actual timing will depend on the day of booking.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional Information:
+The arrangement of the event may be adjusted to accommodate the number of participants.
+If you're slightly outside the age range, please check with us before purchasing.
+Contact us: i﻿nnersoulverse@gmail.com | Visit us: www.innersoulverse.com
+Cancellation and refund:
+Refund 100% of the ticket price: For cancellation more than 21 days from event.
+Refund 75% of the ticket price:  For cancellation more than 14 days from event.
+Refund 50% of the ticket price: For cancellation more than 7 days from event.
+Refund 15% of the ticket price: For cancellation more than 72 hours  from event.
+No Refund: 
+- For cancellation less than 72 hrs from event
+- For participants who don't meet the event's requirements
+- For tickets that was implemented to discourage no turn-ups
+Full refund: 
+- Event cancelled by organisor.
+- In the event of significant changes, such as alterations to the location. Important to note that attendees have a 48-hour window to respond to these changes. In addition, no refunds will be provided for changes explicitly highlighted and expected in advance.
+Please allow up to 3 business days for the refund.
+</t>
+  </si>
+  <si>
+    <t>REMINDER</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[EVENT CONFIRMED] Singles Ice Dreams (Ice-Cream Workshop)
+Dear attendees,
+Thank you for being a part of Singles Ice Dreams (Ice-Cream Workshop) ! 
+On the day of the event, you can contact our ground staff @ 87601459 or on WhatsApp https://wa.me/6587601459
+(Note: This is a dedicated tel nr that will only be activated on the day of the event to facilitate any logisitical issues)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Date / Time: 26 Dec (Sun) @ 2:00 pm
+Place: Ice Cream Chefs
+Address: 12 Jln Kuras, Singapore 577727</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Verification doc: Singpass
+Event registration: Screen shot of ticket.
+Thanks,
+Jamaica G. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hi Attendees,
+We are pleased to announce the event confirmation. Do note the following:
+1) There is a minimum spending requirement of $20 at the restaurant.
+2) Upon your attendance, you will receive a refund for the ticket fare within 3 business days. This measure is implemented solely to avoid instances of non-attendance.
+3) On the day of the event, you can contact our ground staff @ 87601459 or on WhatsApp https://wa.me/6587601459
+(Note: This is a dedicated tel nr that will only be activated on the day of the event to facilitate any logisitical issues)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Event</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Place:  Yorimichi 6001 Beach Road, #01-02 GOLDEN MILE TOWER Singapore 199589
+Date/Time: 23 Dec, 6-8pm
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>How to Get there (MRT)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Nicholl Highway MRT, Exit A
+- Walk along the bridge and look out for the stair leading down to St. John HQ
+- Walk a short distance and you'd reached.
+Thanks
+Jamaica</t>
+    </r>
+  </si>
+  <si>
+    <t>There is a minimum spending requirement of $20 at the restaurant.
+No refunds after purchase.
+However, upon your attendance, you will receive a full refund for the ticket fare within 3 business days. This measure is implemented solely to avoid instances of non-attendance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Important. Please read: 
+Please be aware that, given the dynamic nature of dance workshops, there may be an uneven gender ratio.
+As we have different events running concurrently, we would like you to join us for a get together session with attendees from the other event. (To be advised on the day of the event)
+Event Title:
+Singles Two Left (Partner Dance Workshop)
+Event Summary:
+An upbeat and enjoyable partner dance session with singles
+Event:
+This workshop is in partnership with JUMP FIVE DANCE ACADEMY. https://www.jumpfivedance.com/adults
+This workshop is cheoreographed to be a light and fun partner dance session.
+We anticipate an attendance of 6-10 participants.
+Requirements:
+For ladies age 25 - 42.
+For gentlemen age 28 - 45.
+Participants are shall be of unmarried marital status (single/annulled/divorced/widowed)
+Participants are to present proof of the abovementioned requirements (eg, Singpass). 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event Title:
+Singles Smiles Aglow Dining
+Event Summary:
+A captivating dining experience through an illuminated ambience
+Event:
+- Dinner includes starters, mains, yakitori, and dessert
+- We anticipate an attendance of 8-12 participants.
+- Rotation occur approximately every 10-12 minutes.
+Requirements:
+For ladies age 25 - 42.
+For gentlemen age 28 - 45.
+Participants are shall be of unmarried marital status (single/annulled/divorced/widowed)
+Participants are to present proof of the abovementioned requirements (eg, Singpass). 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event Title::
+Singles Mystery Golf
+Event Summary:
+Mystery solving and mini golfing? Who knows what unexpected adventures may unfold?
+Event:
+It's time to spice up your dating life and create memories that will last a lifetime. Embrace the golfing and mystery. No prior golf experience needed. 
+Mini golf session
+We anticipate an attendance of 8-10 participants.
+Rotation occur mid way through the game.
+Requirements:
+For ladies age 25 - 42.
+For gentlemen age 25 - 45.
+Participants are shall be of unmarried marital status (single/annulled/divorced/widowed)
+Participants are to present proof of the abovementioned requirements (eg, Singpass). 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event Title:
+Singles Dining In The Dark
+Event Summary:
+Experience a unique dining in the dark dating event, where our taste buds awaken and our genuine connection forms
+Event:
+Dining event.
+This event takes place in a completely dark venue.
+8﻿ dish meal is provided. The chef determines the food served, leading to variations from one event to another.
+Trained staff will be available to assist participants in navigating through the darkness.
+We anticipate an attendance of 10-14 participants.
+Rotation occur approximately every 8-10 minutes.
+Dietary allergies and dietary requirements can be arranged.
+The event will only proceed when the gender ratio are relatively balanced. 
+Requirements:
+For gentlemen age 30-42.
+For ladies age 28-40.
+Participants are shall be of unmarried marital status (single/annulled/divorced/widowed)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Event Title:
+Singles Ice Dreams (Ice-Cream Workshop)
+Event Summary:
+Share scoops of laughs in a Fun, Frozen, &amp; Flavorful Ice Cream Workshop
+Event:
+This workshop is in partnership with MOMOLATO. https://momolato.com/
+ different flavours to choose from. 
+Vegan flavour option available
+We anticipate an attendance of 8-10 participants.
+Requirements:
+For ladies age 25 - 42.
+For gentlemen age 28 - 45.
+Participants are shall be of unmarried marital status (single/annulled/divorced/widowed)
+Participants are to present proof of the abovementioned requirements (eg, Singpass). 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event Brite (GREEN)
+Event Title:
+Singles Vegan Dining
+Event Summary:
+A dining event designed for vegan singles to meet, mingle, and make plantiful connections.
+Event:
+Find that herbivore who shares your values and love for all things plant-based. Elevate your romance with the power of plant-powered connections while savouring guilt-free vegan cuisine 
+Curated dinner. Our talented chefs have curated a menu (appetizer, main, side, drinks, dessert) that celebrates the bounty of nature's goodness that is entirely plant-based and free from animal products such as eggs, dairy, and more.
+We anticipate an attendance of 10-12 participants.
+Rotation occur approximately every 10-12 minutes.
+The event will only proceed when the gender ratio are relatively balanced. 
+Requirements:
+For ladies age 25 - 40.
+For gentlemen age 30 - 45.
+Participants are shall be of unmarried marital status (single/annulled/divorced/widowed) 
+Participants are to present proof of the abovementioned requirements (eg, Singpass). 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event Title:
+Singles Wolf Down Buffet Dining
+Event Summary:
+This event is specially designed for singles buffet aficionados and those who relish the tantalizing aroma and flavors of yakitori. 
+Event:
+This event is specially designed for buffet aficionados and those who relish the tantalizing aroma and flavors of yakitori. 
+A la carte buffet. Ice water will be provided.
+We anticipate an attendance of 10-12 participants.
+Facilitation for participants to mingle.
+Requirements:
+For ladies age 25 - 42.
+For gentlemen age 28 - 45.
+Participants are shall be of unmarried marital status (single/annulled/divorced/widowed)
+Participants are to present proof of the abovementioned requirements (eg, Singpass). 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event Title::
+Singles Songbirds karaoke
+Event Summary:
+Showcase your vocal talents. Or simply sit back and relish the event’s entertainment.
+Event:
+Showcase your vocal talents. Or simply sit back and relish the event’s entertainment. (cards and dice are available)
+Karaoke session.
+Food orders will commence at 5pm onwards.
+We anticipate an attendance of 10-12 participants.
+The event is free and easy. Attendees are enoucrage to mingle and sing along with others 
+There is a minimum spending requirement of $20 from the restaurant. 
+Requirements:
+For ladies age 25 - 42.
+For gentlemen age 25 - 42.
+Participants are shall be of unmarried marital status (single/annulled/divorced/widowed)
+Participants are to present proof of the abovementioned requirements (eg, Singpass). 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event Title:
+Singles Encore Dining 
+Event Summary:
+For those who believe in second chances in love
+Event:
+Encore event aims at those who believe in second chances. Let your heart be open to the gentle possibility of love's encore. If you're divorced, a single parent, or simply unattached, Encore provides the perfect platform for you to connect, mingle, and potentially find that remarkable person who resonates with your unique journey.
+Dining session.
+We anticipate an attendance of 10-12 participants.
+Event facilitation will be available to ensure participants have the opportunity to interact and mingle with each other.
+There is a minimum spending requirement of $20 at the restaurant.
+Requirements:
+Participants are shall be of unmarried marital status (single/annulled/divorced/widowed)
+Participants are to present proof of the abovementioned requirements (eg, Singpass). 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Important. Please read:
+This event will only Proceed when the number of attendees has reached and the gender ratio are relatively balanced. 
+Please look up for our email for updates 5 to 7 days prior to the event.
+</t>
+  </si>
+  <si>
+    <t>Potato salad $5.8 / chawanmushi $4.8
+5 kinds sushis (choose from sushis that has 8pcs) $14.8(3), $18.8(1), $10.8(1)
+  - Crab Stick (1pc), Spicy Salmon (1pc), Uni Maki(1pc), Lobster (1pc), Eby Fry (1pc)
+4 kinds yakitori $6.8(2), $7.8(2)
+  - Asparagus bacon (2pc), Enoki Maki (2pc), Shitake (2pc), Chick wings(2pc)
+mini-mentaki sphagetti / mini unagi fried rice (half portion)
+pitan tofu / Japanese omelette
+ice-cream</t>
+  </si>
+  <si>
+    <t>$5.80
+$9
+$11
+$7.90
+$7.80
+$2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,7 +502,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -419,16 +533,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -442,7 +548,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -465,37 +571,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -503,18 +583,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -798,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,65 +900,65 @@
     <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:10" s="5" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>31</v>
@@ -878,12 +966,12 @@
     </row>
     <row r="3" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -894,99 +982,179 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="66.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="82.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="77.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="82.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="7" t="str">
+        <f>CONCATENATE(A2,A4)</f>
+        <v>Important. Please read:
+This event will only Proceed when the number of attendees has reached and the gender ratio are relatively balanced. 
+Please look up for our email for updates 5 to 7 days prior to the event.
+There is a minimum spending requirement of $20 at the restaurant.
+No refunds after purchase.
+However, upon your attendance, you will receive a full refund for the ticket fare within 3 business days. This measure is implemented solely to avoid instances of non-attendance.</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="B3" s="7"/>
-    </row>
-    <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="D5" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:B3"/>
+  <mergeCells count="3">
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="78.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="65.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.140625" customWidth="1"/>
-    <col min="4" max="4" width="56.5703125" customWidth="1"/>
+    <col min="3" max="3" width="103.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="63.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="300" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="189" x14ac:dyDescent="0.25">
+      <c r="C10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="2">
+        <f>(5.8*3)+6.8+7.8</f>
         <v>32</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>35</v>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="2">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="2">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="2">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="2">
+        <f>SUM(D12:D17)*1.1</f>
+        <v>47.85</v>
+      </c>
+      <c r="E18" s="2">
+        <f>D18*12</f>
+        <v>574.20000000000005</v>
       </c>
     </row>
   </sheetData>

--- a/event excel.xlsx
+++ b/event excel.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17085" windowHeight="3630" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17085" windowHeight="3630" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="event" sheetId="1" r:id="rId1"/>
     <sheet name="add info" sheetId="2" r:id="rId2"/>
     <sheet name="email" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>IMPORTANT</t>
   </si>
@@ -469,24 +470,6 @@
 This event will only Proceed when the number of attendees has reached and the gender ratio are relatively balanced. 
 Please look up for our email for updates 5 to 7 days prior to the event.
 </t>
-  </si>
-  <si>
-    <t>Potato salad $5.8 / chawanmushi $4.8
-5 kinds sushis (choose from sushis that has 8pcs) $14.8(3), $18.8(1), $10.8(1)
-  - Crab Stick (1pc), Spicy Salmon (1pc), Uni Maki(1pc), Lobster (1pc), Eby Fry (1pc)
-4 kinds yakitori $6.8(2), $7.8(2)
-  - Asparagus bacon (2pc), Enoki Maki (2pc), Shitake (2pc), Chick wings(2pc)
-mini-mentaki sphagetti / mini unagi fried rice (half portion)
-pitan tofu / Japanese omelette
-ice-cream</t>
-  </si>
-  <si>
-    <t>$5.80
-$9
-$11
-$7.90
-$7.80
-$2</t>
   </si>
 </sst>
 </file>
@@ -595,14 +578,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -886,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,7 +968,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,10 +979,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="9"/>
       <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
@@ -1008,7 +991,7 @@
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="7" t="str">
+      <c r="B2" s="8" t="str">
         <f>CONCATENATE(A2,A4)</f>
         <v>Important. Please read:
 This event will only Proceed when the number of attendees has reached and the gender ratio are relatively balanced. 
@@ -1017,7 +1000,7 @@
 No refunds after purchase.
 However, upon your attendance, you will receive a full refund for the ticket fare within 3 business days. This measure is implemented solely to avoid instances of non-attendance.</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1025,14 +1008,14 @@
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="8"/>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1057,16 +1040,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="78.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="65.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="103.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="63.7109375" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -1105,23 +1088,6 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="189" x14ac:dyDescent="0.25">
-      <c r="C10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="2">
-        <f>(5.8*3)+6.8+7.8</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D12" s="2">
-        <v>5.8</v>
-      </c>
-    </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" s="2">
         <v>9</v>
@@ -1149,16 +1115,39 @@
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D18" s="2">
-        <f>SUM(D12:D17)*1.1</f>
-        <v>47.85</v>
+        <f>SUM(D13:D17)</f>
+        <v>37.699999999999996</v>
       </c>
       <c r="E18" s="2">
         <f>D18*12</f>
-        <v>574.20000000000005</v>
+        <v>452.4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="3:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/event excel.xlsx
+++ b/event excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17085" windowHeight="3630" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17085" windowHeight="3630" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="event" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>IMPORTANT</t>
   </si>
@@ -66,9 +66,6 @@
 </t>
   </si>
   <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
     <t>ICE</t>
   </si>
   <si>
@@ -128,47 +125,7 @@
     <t>GOLF</t>
   </si>
   <si>
-    <t>[EVENT UPDATE]
-Dear attendees,
-An update of the upcoming xxxx event. 
-We are currently experiencing an imbalance in the gender ratio among our participants. Although we have received expressions of interest from some individuals, they have yet to complete their registration, and we remain hopeful.
-Please stay tuned for our update this Friday evening.
-In the event of a cancellation, rest assured that we will provide a full refund.
-Sincerely,
-Jamaica</t>
-  </si>
-  <si>
     <t>CANCELLED EMAIL</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[EVENT CANCELLED]
-Dear attendees,
-It is with disappointment that we announce the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cancellation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> of the event due to an imbalance in the gender ratio. Refunds will be processed. And you will received them within 3-5 working days (as advised by the platform)
-We sincerely thank you for your participation in our event and hope to see you again in the future.
-Sincerely,
-Jamaica</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">We will notify you to proceed with the Payment (see below price) through Paynow. This step secures your reservation and allows us to effectively plan for the event and reduce the possibility of no-shows. 
@@ -198,108 +155,6 @@
 </t>
   </si>
   <si>
-    <t>REMINDER</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[EVENT CONFIRMED] Singles Ice Dreams (Ice-Cream Workshop)
-Dear attendees,
-Thank you for being a part of Singles Ice Dreams (Ice-Cream Workshop) ! 
-On the day of the event, you can contact our ground staff @ 87601459 or on WhatsApp https://wa.me/6587601459
-(Note: This is a dedicated tel nr that will only be activated on the day of the event to facilitate any logisitical issues)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Date / Time: 26 Dec (Sun) @ 2:00 pm
-Place: Ice Cream Chefs
-Address: 12 Jln Kuras, Singapore 577727</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Verification doc: Singpass
-Event registration: Screen shot of ticket.
-Thanks,
-Jamaica G. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Hi Attendees,
-We are pleased to announce the event confirmation. Do note the following:
-1) There is a minimum spending requirement of $20 at the restaurant.
-2) Upon your attendance, you will receive a refund for the ticket fare within 3 business days. This measure is implemented solely to avoid instances of non-attendance.
-3) On the day of the event, you can contact our ground staff @ 87601459 or on WhatsApp https://wa.me/6587601459
-(Note: This is a dedicated tel nr that will only be activated on the day of the event to facilitate any logisitical issues)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Event</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Place:  Yorimichi 6001 Beach Road, #01-02 GOLDEN MILE TOWER Singapore 199589
-Date/Time: 23 Dec, 6-8pm
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>How to Get there (MRT)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- Nicholl Highway MRT, Exit A
-- Walk along the bridge and look out for the stair leading down to St. John HQ
-- Walk a short distance and you'd reached.
-Thanks
-Jamaica</t>
-    </r>
-  </si>
-  <si>
     <t>There is a minimum spending requirement of $20 at the restaurant.
 No refunds after purchase.
 However, upon your attendance, you will receive a full refund for the ticket fare within 3 business days. This measure is implemented solely to avoid instances of non-attendance.</t>
@@ -471,22 +326,87 @@
 Please look up for our email for updates 5 to 7 days prior to the event.
 </t>
   </si>
+  <si>
+    <t>Singles Ice Dreams (Ice-Cream Workshop)</t>
+  </si>
+  <si>
+    <t>Date / Time: 26 Dec (Sun) @ 2:00 pm
+Place: Ice Cream Chefs
+Address: 12 Jln Kuras, Singapore 577727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+[CONTACT]
+Tel: 87601459
+WhatsApp: WhatsApp https://wa.me/6587601459
+(Note: This is a dedicated tel nr that will only be activated on the day of the event to facilitate any logisitical issues with our ground staff)
+[INFO]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Dear attendees,
+The event is confirmed, please take note of the following</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[EVENT CONFIRMED] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Dear attendees,
+The event is confirmed, please take note of the following
+1) There is a minimum spending requirement of $20 at the restaurant.
+2) Upon your attendance, you will receive a refund for the ticket fare within 3 business days. This measure is implemented solely to avoid instances of non-attendance.</t>
+  </si>
+  <si>
+    <t>Date/Time: 23 Dec, 6-8pm
+Place:  Yorimichi
+Address:  6001 Beach Road, #01-02 GOLDEN MILE TOWER Singapore 199589
+How to Get there (for MRT)
+- Nicholl Highway MRT, Exit A
+- Walk along the bridge and look out for the stair leading down to St. John HQ
+- Walk a short distance and you'd reached.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Live, Life, Love
+Jamaica G. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[EVENT UPDATE] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Dear attendees,
+An update.
+We are currently experiencing an IMBALANCE in the gender ratio among our participants. 
+Please look out for us in the next couple of days for further updates.
+In the event of a cancellation, rest assured that we will provide a full refund</t>
+  </si>
+  <si>
+    <t>[EVENT CANCELLED]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Dear attendees,
+It is with disappointment that we announce the cancellation of the event due to an imbalance in the gender ratio. Refunds will be processed. And you will received them within 3-5 working days (as advised by the platform)
+We sincerely thank you for your participation in our event and hope to see you again in the future.</t>
+  </si>
+  <si>
+    <t>CONFIRMED</t>
+  </si>
+  <si>
+    <t>CONFIRMED WITH REMINDER</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -507,15 +427,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -523,12 +434,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -558,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -569,23 +486,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -888,63 +814,63 @@
         <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="H1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="J1" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
@@ -984,12 +910,12 @@
       </c>
       <c r="B1" s="9"/>
       <c r="D1" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>CONCATENATE(A2,A4)</f>
@@ -1001,26 +927,26 @@
 However, upon your attendance, you will receive a full refund for the ticket fare within 3 business days. This measure is implemented solely to avoid instances of non-attendance.</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="8"/>
       <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B4" s="8"/>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1"/>
       <c r="D5" s="3"/>
@@ -1038,89 +964,178 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="78.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="65.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="63.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="3" width="110.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="71.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="57.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="109.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D13" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D14" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D15" s="2">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D16" s="2">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="2">
-        <f>SUM(D13:D17)</f>
-        <v>37.699999999999996</v>
-      </c>
-      <c r="E18" s="2">
-        <f>D18*12</f>
-        <v>452.4</v>
+      <c r="B2" s="1" t="str">
+        <f>CONCATENATE(B3,B4,B5,B6,B7,B8)</f>
+        <v xml:space="preserve">[EVENT CONFIRMED] Singles Ice Dreams (Ice-Cream Workshop)
+Dear attendees,
+The event is confirmed, please take note of the following
+[CONTACT]
+Tel: 87601459
+WhatsApp: WhatsApp https://wa.me/6587601459
+(Note: This is a dedicated tel nr that will only be activated on the day of the event to facilitate any logisitical issues with our ground staff)
+[INFO]
+Date / Time: 26 Dec (Sun) @ 2:00 pm
+Place: Ice Cream Chefs
+Address: 12 Jln Kuras, Singapore 577727
+Live, Life, Love
+Jamaica G. </v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>CONCATENATE(C3,C4,C5,C6,C7,C8)</f>
+        <v xml:space="preserve">[EVENT CONFIRMED] Singles Ice Dreams (Ice-Cream Workshop)
+Dear attendees,
+The event is confirmed, please take note of the following
+1) There is a minimum spending requirement of $20 at the restaurant.
+2) Upon your attendance, you will receive a refund for the ticket fare within 3 business days. This measure is implemented solely to avoid instances of non-attendance.
+[CONTACT]
+Tel: 87601459
+WhatsApp: WhatsApp https://wa.me/6587601459
+(Note: This is a dedicated tel nr that will only be activated on the day of the event to facilitate any logisitical issues with our ground staff)
+[INFO]
+Date/Time: 23 Dec, 6-8pm
+Place:  Yorimichi
+Address:  6001 Beach Road, #01-02 GOLDEN MILE TOWER Singapore 199589
+How to Get there (for MRT)
+- Nicholl Highway MRT, Exit A
+- Walk along the bridge and look out for the stair leading down to St. John HQ
+- Walk a short distance and you'd reached.
+Live, Life, Love
+Jamaica G. </v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>CONCATENATE(D3,D4,D5,D6,D7,D8)</f>
+        <v xml:space="preserve">[EVENT UPDATE] Singles Ice Dreams (Ice-Cream Workshop)
+Dear attendees,
+An update.
+We are currently experiencing an IMBALANCE in the gender ratio among our participants. 
+Please look out for us in the next couple of days for further updates.
+In the event of a cancellation, rest assured that we will provide a full refund
+Live, Life, Love
+Jamaica G. </v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f>CONCATENATE(E3,E4,E5,E6,E7,E8)</f>
+        <v xml:space="preserve">[EVENT CANCELLED]Singles Ice Dreams (Ice-Cream Workshop)
+Dear attendees,
+It is with disappointment that we announce the cancellation of the event due to an imbalance in the gender ratio. Refunds will be processed. And you will received them within 3-5 working days (as advised by the platform)
+We sincerely thank you for your participation in our event and hope to see you again in the future.
+Live, Life, Love
+Jamaica G. </v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1133,7 +1148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>

--- a/event excel.xlsx
+++ b/event excel.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17085" windowHeight="3630" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17085" windowHeight="3630" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="event" sheetId="1" r:id="rId1"/>
-    <sheet name="add info" sheetId="2" r:id="rId2"/>
-    <sheet name="email" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="impt" sheetId="2" r:id="rId1"/>
+    <sheet name="event" sheetId="1" r:id="rId2"/>
+    <sheet name="add info" sheetId="4" r:id="rId3"/>
+    <sheet name="email" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,49 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
   <si>
     <t>IMPORTANT</t>
   </si>
   <si>
-    <t xml:space="preserve">Dear Participant,
-Thank you for being a part of our upcoming Dining in the Dark event! This message serves as a reminder. We look forward to providing you with a unique and memorable experience. See you soon!
-For any issue on the day of the event, you can contact our staff @ 87601459 or on WhatsApp https://wa.me/6587601459
-(Note: This is a dedicated tel nr that will only be activated on the day of the event to facilitate any logisitical issues)
-Date / Time: 13 Aug (Sun) @ 6:00 pm
-Place: Yorimichi Yakitori Izakaya
-Address: 6001 Beach Rd, #01-02 GOLDEN MILE TOWER, Singapore 199589
-Verification doc: Singpass, driving licence, IC, etc
-Event registration: Screen shot of ticket.
-Below is a guide for those travelling from the train station
-Thanks,
-Jamaica G. 
-</t>
-  </si>
-  <si>
     <t>DID</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi Gents,
-Thank you for being a part of our upcoming Dining in the Dark event! This message serves as a reminder. We look forward to providing you with a unique and memorable experience. See you soon!
-Please meet our staff with an Inner Soul Verse armband at the entrance of the golden mile tower for registration and verification as depicted in the photo.
-For any issue on the day of the event, you can contact our staff @ 87601459 or on WhatsApp https://wa.me/6587601459
-(Note: This is a dedicated tel nr that will only be activated on the day of the event to facilitate any logisitical issues)
-Date / Time: 13 Aug (Sun) @ 6:15 pm
-Place: Yorimichi Yakitori Izakaya 
-Address: 6001 Beach Rd, #01-02 GOLDEN MILE TOWER, Singapore 199589 
-Verification doc: Singpass, driving licence, IC, etc
-Event Registration: Screen shot of ticket.
-Below is a guide for those travelling from the train station  Thanks,
-Jamaica G. 
-https://www.streetdirectory.com/sg/golden-mile-complex/5001-beach-road-199588/12858_15512.html
-</t>
-  </si>
-  <si>
     <t>ICE</t>
-  </si>
-  <si>
-    <t>WOLD</t>
   </si>
   <si>
     <t>GREEN</t>
@@ -119,9 +85,6 @@
 Jamaica G.</t>
   </si>
   <si>
-    <t>IMBALANCE EMAIL</t>
-  </si>
-  <si>
     <t>GOLF</t>
   </si>
   <si>
@@ -129,29 +92,6 @@
   </si>
   <si>
     <t xml:space="preserve">We will notify you to proceed with the Payment (see below price) through Paynow. This step secures your reservation and allows us to effectively plan for the event and reduce the possibility of no-shows. 
-</t>
-  </si>
-  <si>
-    <t>Actual timing will depend on the day of booking.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional Information:
-The arrangement of the event may be adjusted to accommodate the number of participants.
-If you're slightly outside the age range, please check with us before purchasing.
-Contact us: i﻿nnersoulverse@gmail.com | Visit us: www.innersoulverse.com
-Cancellation and refund:
-Refund 100% of the ticket price: For cancellation more than 21 days from event.
-Refund 75% of the ticket price:  For cancellation more than 14 days from event.
-Refund 50% of the ticket price: For cancellation more than 7 days from event.
-Refund 15% of the ticket price: For cancellation more than 72 hours  from event.
-No Refund: 
-- For cancellation less than 72 hrs from event
-- For participants who don't meet the event's requirements
-- For tickets that was implemented to discourage no turn-ups
-Full refund: 
-- Event cancelled by organisor.
-- In the event of significant changes, such as alterations to the location. Important to note that attendees have a 48-hour window to respond to these changes. In addition, no refunds will be provided for changes explicitly highlighted and expected in advance.
-Please allow up to 3 business days for the refund.
 </t>
   </si>
   <si>
@@ -232,24 +172,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-Event Title:
-Singles Ice Dreams (Ice-Cream Workshop)
-Event Summary:
-Share scoops of laughs in a Fun, Frozen, &amp; Flavorful Ice Cream Workshop
-Event:
-This workshop is in partnership with MOMOLATO. https://momolato.com/
- different flavours to choose from. 
-Vegan flavour option available
-We anticipate an attendance of 8-10 participants.
-Requirements:
-For ladies age 25 - 42.
-For gentlemen age 28 - 45.
-Participants are shall be of unmarried marital status (single/annulled/divorced/widowed)
-Participants are to present proof of the abovementioned requirements (eg, Singpass). 
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Event Brite (GREEN)
 Event Title:
 Singles Vegan Dining
@@ -321,27 +243,12 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Important. Please read:
-This event will only Proceed when the number of attendees has reached and the gender ratio are relatively balanced. 
-Please look up for our email for updates 5 to 7 days prior to the event.
-</t>
-  </si>
-  <si>
     <t>Singles Ice Dreams (Ice-Cream Workshop)</t>
   </si>
   <si>
     <t>Date / Time: 26 Dec (Sun) @ 2:00 pm
 Place: Ice Cream Chefs
 Address: 12 Jln Kuras, Singapore 577727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-[CONTACT]
-Tel: 87601459
-WhatsApp: WhatsApp https://wa.me/6587601459
-(Note: This is a dedicated tel nr that will only be activated on the day of the event to facilitate any logisitical issues with our ground staff)
-[INFO]
-</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -368,11 +275,6 @@
 - Walk a short distance and you'd reached.</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Live, Life, Love
-Jamaica G. </t>
-  </si>
-  <si>
     <t xml:space="preserve">[EVENT UPDATE] </t>
   </si>
   <si>
@@ -384,9 +286,6 @@
 In the event of a cancellation, rest assured that we will provide a full refund</t>
   </si>
   <si>
-    <t>[EVENT CANCELLED]</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 Dear attendees,
 It is with disappointment that we announce the cancellation of the event due to an imbalance in the gender ratio. Refunds will be processed. And you will received them within 3-5 working days (as advised by the platform)
@@ -397,6 +296,143 @@
   </si>
   <si>
     <t>CONFIRMED WITH REMINDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[EVENT CONFIRMED &amp; REMINDER] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+[CONTACT ON EVENT DAY ONLY]
+Tel: 87601459
+WhatsApp: WhatsApp https://wa.me/6587601459
+NOTE: This tel is SWITCHED ON ONLY on the day of the event for facilitation purposes.
+AOB, pls contact us on innersoulverse@gmail.com
+[INFO]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Live Life Love Life
+Jamaica G. </t>
+  </si>
+  <si>
+    <t>WOLF</t>
+  </si>
+  <si>
+    <t>PRIVATEDINE</t>
+  </si>
+  <si>
+    <t>[CANCELLATION &amp; REFUND]
+Cancellation made more than 21 days from event: Refund 100% of ticket price
+Cancellation made more than 14 days from event: Refund 75% of ticket price
+Cancellation made more than  07 days from event: Refund 50% of ticket price
+Cancellation made more than 72 hour from event: Refund 10% of ticket price
+No Refund: 
+For cancellation less than 72 hrs from event
+For participants who don't meet the event's requirements
+Full refund: 
+Event cancelled by organisor.
+In the event of significant changes, such as alterations to the location. Important to note that attendees have a 48-hour window to respond to these changes. In addition, no refunds will be provided for changes explicitly highlighted and expected in advance.
+Please allow up to 3 business days for the refund.</t>
+  </si>
+  <si>
+    <t>Actual timing will depend on the day of booking ( 5-7 days from actual day)
+Once booking has been annouced, no cancellation is allowed. (Case by case)</t>
+  </si>
+  <si>
+    <t>[CANCELLATION &amp; REFUND]
+Cancellation made more than 21 days from event: Refund 100% of ticket price
+Cancellation made more than 14 days from event: Refund 75% of ticket price
+No Refund: 
+Once the timing of the slot has been booked
+For participants who don't meet the event's requirements
+Full refund: 
+Event cancelled by organisor.
+In the event of significant changes, such as alterations to the location. Important to note that attendees have a 48-hour window to respond to these changes. In addition, no refunds will be provided for changes explicitly highlighted and expected in advance.
+Please allow up to 3 business days for the refund.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[EVENT CANCELLED] </t>
+  </si>
+  <si>
+    <t>UPDATE EMAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[IMPORTANT. PLEASE READ]
+This event will only Proceed when the number of attendees has reached and the gender ratio are relatively balanced. 
+Please look up for our email for updates 3 to 5 days prior to the event.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ADDITIONAL INFORMATION]
+The arrangement of the event may be adjusted to accommodate the number of participants.
+If you're slightly outside the age range, please check with us before purchasing.
+Contact us:  i﻿nnersoulverse@gmail.com | Visit us: www.innersoulverse.com
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event Title:
+Singles Ice Dreams (Ice-Cream Workshop)
+Event Summary:
+Share scoops of laughs in a Fun, Frozen, &amp; Flavorful Ice Cream Workshop
+Event:
+This workshop is in partnership with MOMOLATO. https://momolato.com/
+ different flavours to choose from. 
+Vegan flavour option available
+We anticipate an attendance of 8-10 participants.
+Requirements:
+For ladies age 25 - 42.
+For gentlemen age 28 - 45.
+Participants are shall be of unmarried marital status (single/annulled/divorced/widowed)
+Participants are to present proof of the abovementioned requirements (eg, Singpass). 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event Title::
+Singles Private Dining
+Event Summary:
+Savor a six-course meal in a private setting for meaningful conversations and connections
+[EVENT]
+A specially prepared six-course meal awaits your enjoyment, with the venue exclusively reserved for you. Revel in undisturbed conversations and meaningful connections in this unique setting.
+- Dinner includes starters, sushi, yakitori, mains, sides and dessert (plain water is provided)
+- We anticipate an attendance of 8-12 participants.
+- Rotation occur approximately every 10-12 minutes.
+[REQUIREMENT]
+For ladies age 28 - 45.
+For gentlemen age 28 - 45.
+Participants are shall be of unmarried marital status (single/annulled/divorced/widowed)
+Participants are to present proof of the abovementioned requirements (eg, Singpass). 
+</t>
+  </si>
+  <si>
+    <t>SPIRIT</t>
+  </si>
+  <si>
+    <t>[CANCELLATION &amp; REFUND]
+No Refunds. Unless otherwise stated.
+Full refund: 
+Event cancelled by organisor.
+Please allow up to 3 business days for the refund.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event Title:
+Singles Spirit Away 
+Event Summary:
+Meet your kindred spirit over drinks
+[EVENT]
+The event will takes place in an cozy private bar, where attendees are urged to socialize and forge connections with one another.
+Drinks social session.
+We anticipate an attendance of 10-12 participants.
+There is a minimum spending requirement of $20 at the restaurant.
+[REQUIREMENTS]
+Single individuals with a free spirit
+Participants are shall be of unmarried marital status (single/annulled/divorced/widowed)
+Participants are to present proof of the abovementioned requirements (eg, Singpass). 
+</t>
   </si>
 </sst>
 </file>
@@ -448,7 +484,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -471,11 +507,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -498,20 +571,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -793,167 +878,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T4"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="2" customWidth="1"/>
-    <col min="3" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="24.140625" style="2" customWidth="1"/>
-    <col min="10" max="18" width="9.140625" style="2"/>
-    <col min="21" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="66.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="77.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="82.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="D1" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="8" t="str">
+        <v>46</v>
+      </c>
+      <c r="B2" s="11" t="str">
         <f>CONCATENATE(A2,A4)</f>
-        <v>Important. Please read:
+        <v>[IMPORTANT. PLEASE READ]
 This event will only Proceed when the number of attendees has reached and the gender ratio are relatively balanced. 
-Please look up for our email for updates 5 to 7 days prior to the event.
+Please look up for our email for updates 3 to 5 days prior to the event.
 There is a minimum spending requirement of $20 at the restaurant.
 No refunds after purchase.
 However, upon your attendance, you will receive a full refund for the ticket fare within 3 business days. This measure is implemented solely to avoid instances of non-attendance.</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="D3" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="B3" s="11"/>
     </row>
     <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="B4" s="11"/>
+    </row>
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="D5" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D2:D3"/>
+  <mergeCells count="2">
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="A1:B1"/>
   </mergeCells>
@@ -962,12 +939,203 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="11.28515625" style="2" customWidth="1"/>
+    <col min="5" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="24.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="2"/>
+    <col min="11" max="11" width="21.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="43.140625" style="2" customWidth="1"/>
+    <col min="13" max="18" width="9.140625" style="2"/>
+    <col min="21" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K6" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="82.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="13" t="str">
+        <f>CONCATENATE(A2,A6)</f>
+        <v>[ADDITIONAL INFORMATION]
+The arrangement of the event may be adjusted to accommodate the number of participants.
+If you're slightly outside the age range, please check with us before purchasing.
+Contact us:  i﻿nnersoulverse@gmail.com | Visit us: www.innersoulverse.com
+[CANCELLATION &amp; REFUND]
+No Refunds. Unless otherwise stated.
+Full refund: 
+Event cancelled by organisor.
+Please allow up to 3 business days for the refund.</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="15"/>
+    </row>
+    <row r="5" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,52 +1151,54 @@
   <sheetData>
     <row r="1" spans="1:6" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="str">
         <f>CONCATENATE(B3,B4,B5,B6,B7,B8)</f>
         <v xml:space="preserve">[EVENT CONFIRMED] Singles Ice Dreams (Ice-Cream Workshop)
 Dear attendees,
 The event is confirmed, please take note of the following
-[CONTACT]
+[CONTACT ON EVENT DAY ONLY]
 Tel: 87601459
 WhatsApp: WhatsApp https://wa.me/6587601459
-(Note: This is a dedicated tel nr that will only be activated on the day of the event to facilitate any logisitical issues with our ground staff)
+NOTE: This tel is SWITCHED ON ONLY on the day of the event for facilitation purposes.
+AOB, pls contact us on innersoulverse@gmail.com
 [INFO]
 Date / Time: 26 Dec (Sun) @ 2:00 pm
 Place: Ice Cream Chefs
 Address: 12 Jln Kuras, Singapore 577727
-Live, Life, Love
+Live Life Love Life
 Jamaica G. </v>
       </c>
       <c r="C2" s="1" t="str">
         <f>CONCATENATE(C3,C4,C5,C6,C7,C8)</f>
-        <v xml:space="preserve">[EVENT CONFIRMED] Singles Ice Dreams (Ice-Cream Workshop)
+        <v xml:space="preserve">[EVENT CONFIRMED &amp; REMINDER] Singles Ice Dreams (Ice-Cream Workshop)
 Dear attendees,
 The event is confirmed, please take note of the following
 1) There is a minimum spending requirement of $20 at the restaurant.
 2) Upon your attendance, you will receive a refund for the ticket fare within 3 business days. This measure is implemented solely to avoid instances of non-attendance.
-[CONTACT]
+[CONTACT ON EVENT DAY ONLY]
 Tel: 87601459
 WhatsApp: WhatsApp https://wa.me/6587601459
-(Note: This is a dedicated tel nr that will only be activated on the day of the event to facilitate any logisitical issues with our ground staff)
+NOTE: This tel is SWITCHED ON ONLY on the day of the event for facilitation purposes.
+AOB, pls contact us on innersoulverse@gmail.com
 [INFO]
 Date/Time: 23 Dec, 6-8pm
 Place:  Yorimichi
@@ -1037,7 +1207,7 @@
 - Nicholl Highway MRT, Exit A
 - Walk along the bridge and look out for the stair leading down to St. John HQ
 - Walk a short distance and you'd reached.
-Live, Life, Love
+Live Life Love Life
 Jamaica G. </v>
       </c>
       <c r="D2" s="1" t="str">
@@ -1048,121 +1218,98 @@
 We are currently experiencing an IMBALANCE in the gender ratio among our participants. 
 Please look out for us in the next couple of days for further updates.
 In the event of a cancellation, rest assured that we will provide a full refund
-Live, Life, Love
+Live Life Love Life
 Jamaica G. </v>
       </c>
       <c r="E2" s="1" t="str">
         <f>CONCATENATE(E3,E4,E5,E6,E7,E8)</f>
-        <v xml:space="preserve">[EVENT CANCELLED]Singles Ice Dreams (Ice-Cream Workshop)
+        <v xml:space="preserve">[EVENT CANCELLED] Singles Ice Dreams (Ice-Cream Workshop)
 Dear attendees,
 It is with disappointment that we announce the cancellation of the event due to an imbalance in the gender ratio. Refunds will be processed. And you will received them within 3-5 working days (as advised by the platform)
 We sincerely thank you for your participation in our event and hope to see you again in the future.
-Live, Life, Love
+Live Life Love Life
 Jamaica G. </v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="3:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/event excel.xlsx
+++ b/event excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17085" windowHeight="3630" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17085" windowHeight="3630" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="impt" sheetId="2" r:id="rId1"/>
@@ -322,34 +322,8 @@
     <t>PRIVATEDINE</t>
   </si>
   <si>
-    <t>[CANCELLATION &amp; REFUND]
-Cancellation made more than 21 days from event: Refund 100% of ticket price
-Cancellation made more than 14 days from event: Refund 75% of ticket price
-Cancellation made more than  07 days from event: Refund 50% of ticket price
-Cancellation made more than 72 hour from event: Refund 10% of ticket price
-No Refund: 
-For cancellation less than 72 hrs from event
-For participants who don't meet the event's requirements
-Full refund: 
-Event cancelled by organisor.
-In the event of significant changes, such as alterations to the location. Important to note that attendees have a 48-hour window to respond to these changes. In addition, no refunds will be provided for changes explicitly highlighted and expected in advance.
-Please allow up to 3 business days for the refund.</t>
-  </si>
-  <si>
     <t>Actual timing will depend on the day of booking ( 5-7 days from actual day)
 Once booking has been annouced, no cancellation is allowed. (Case by case)</t>
-  </si>
-  <si>
-    <t>[CANCELLATION &amp; REFUND]
-Cancellation made more than 21 days from event: Refund 100% of ticket price
-Cancellation made more than 14 days from event: Refund 75% of ticket price
-No Refund: 
-Once the timing of the slot has been booked
-For participants who don't meet the event's requirements
-Full refund: 
-Event cancelled by organisor.
-In the event of significant changes, such as alterations to the location. Important to note that attendees have a 48-hour window to respond to these changes. In addition, no refunds will be provided for changes explicitly highlighted and expected in advance.
-Please allow up to 3 business days for the refund.</t>
   </si>
   <si>
     <t xml:space="preserve">[EVENT CANCELLED] </t>
@@ -361,13 +335,6 @@
     <t xml:space="preserve">[IMPORTANT. PLEASE READ]
 This event will only Proceed when the number of attendees has reached and the gender ratio are relatively balanced. 
 Please look up for our email for updates 3 to 5 days prior to the event.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ADDITIONAL INFORMATION]
-The arrangement of the event may be adjusted to accommodate the number of participants.
-If you're slightly outside the age range, please check with us before purchasing.
-Contact us:  i﻿nnersoulverse@gmail.com | Visit us: www.innersoulverse.com
 </t>
   </si>
   <si>
@@ -412,13 +379,6 @@
     <t>SPIRIT</t>
   </si>
   <si>
-    <t>[CANCELLATION &amp; REFUND]
-No Refunds. Unless otherwise stated.
-Full refund: 
-Event cancelled by organisor.
-Please allow up to 3 business days for the refund.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Event Title:
 Singles Spirit Away 
 Event Summary:
@@ -433,6 +393,49 @@
 Participants are shall be of unmarried marital status (single/annulled/divorced/widowed)
 Participants are to present proof of the abovementioned requirements (eg, Singpass). 
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ADDITIONAL INFORMATION]
+The arrangement of the event may be adjusted to accommodate the number of participants.
+If you're slightly outside the age range, please check with us before purchasing.
+Contact us:   Visit us: www.innersoulverse.com | i﻿nnersoulverse@gmail.com
+</t>
+  </si>
+  <si>
+    <t>[CANCELLATION &amp; REFUND] 
+NOTE: Please contact us directly.
+Cancellation made more than 21 days from event: Refund 100% of ticket price
+Cancellation made more than 14 days from event: Refund 75% of ticket price
+Cancellation made more than  07 days from event: Refund 50% of ticket price
+Cancellation made more than 72 hour from event: Refund 10% of ticket price
+No Refund: 
+For cancellation less than 72 hrs from event
+For participants who don't meet the event's requirements
+Full refund: 
+Event cancelled by organisor.
+In the event of significant changes, such as alterations to the location. Important to note that attendees have a 48-hour window to respond to these changes. In addition, no refunds will be provided for changes explicitly highlighted and expected in advance.
+Please allow up to 3 business days for the refund.</t>
+  </si>
+  <si>
+    <t>[CANCELLATION &amp; REFUND] 
+NOTE: Please contact us directly.
+Cancellation made more than 21 days from event: Refund 100% of ticket price
+Cancellation made more than 14 days from event: Refund 75% of ticket price
+No Refund: 
+Once the timing of the slot has been booked
+For participants who don't meet the event's requirements
+Full refund: 
+Event cancelled by organisor.
+In the event of significant changes, such as alterations to the location. Important to note that attendees have a 48-hour window to respond to these changes. In addition, no refunds will be provided for changes explicitly highlighted and expected in advance.
+Please allow up to 3 business days for the refund.</t>
+  </si>
+  <si>
+    <t>[CANCELLATION &amp; REFUND] 
+NOTE: Please contact us directly.
+No Refunds. Unless otherwise stated.
+Full refund: 
+Event cancelled by organisor.
+Please allow up to 3 business days for the refund.</t>
   </si>
 </sst>
 </file>
@@ -580,6 +583,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -594,9 +600,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -891,16 +894,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:4" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="11" t="str">
+        <v>44</v>
+      </c>
+      <c r="B2" s="12" t="str">
         <f>CONCATENATE(A2,A4)</f>
         <v>[IMPORTANT. PLEASE READ]
 This event will only Proceed when the number of attendees has reached and the gender ratio are relatively balanced. 
@@ -909,23 +912,23 @@
 No refunds after purchase.
 However, upon your attendance, you will receive a full refund for the ticket fare within 3 business days. This measure is implemented solely to avoid instances of non-attendance.</v>
       </c>
-      <c r="D2" s="16"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="12"/>
     </row>
     <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="12"/>
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1"/>
     </row>
@@ -943,7 +946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="D2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -997,7 +1000,7 @@
         <v>40</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
@@ -1005,7 +1008,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>21</v>
@@ -1032,10 +1035,10 @@
         <v>19</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1046,7 +1049,7 @@
       <c r="A4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1065,7 +1068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
@@ -1083,16 +1086,17 @@
       <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="13" t="str">
+      <c r="A2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="14" t="str">
         <f>CONCATENATE(A2,A6)</f>
         <v>[ADDITIONAL INFORMATION]
 The arrangement of the event may be adjusted to accommodate the number of participants.
 If you're slightly outside the age range, please check with us before purchasing.
-Contact us:  i﻿nnersoulverse@gmail.com | Visit us: www.innersoulverse.com
-[CANCELLATION &amp; REFUND]
+Contact us:   Visit us: www.innersoulverse.com | i﻿nnersoulverse@gmail.com
+[CANCELLATION &amp; REFUND] 
+NOTE: Please contact us directly.
 No Refunds. Unless otherwise stated.
 Full refund: 
 Event cancelled by organisor.
@@ -1100,25 +1104,25 @@
       </c>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="14"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="270" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="15"/>
-    </row>
-    <row r="5" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="B4" s="16"/>
+    </row>
+    <row r="5" spans="1:4" ht="240" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1160,7 +1164,7 @@
         <v>35</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>14</v>
@@ -1243,7 +1247,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">

--- a/event excel.xlsx
+++ b/event excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17085" windowHeight="3630" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="impt" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>IMPORTANT</t>
   </si>
@@ -246,11 +246,6 @@
     <t>Singles Ice Dreams (Ice-Cream Workshop)</t>
   </si>
   <si>
-    <t>Date / Time: 26 Dec (Sun) @ 2:00 pm
-Place: Ice Cream Chefs
-Address: 12 Jln Kuras, Singapore 577727</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 Dear attendees,
 The event is confirmed, please take note of the following</t>
@@ -264,15 +259,6 @@
 The event is confirmed, please take note of the following
 1) There is a minimum spending requirement of $20 at the restaurant.
 2) Upon your attendance, you will receive a refund for the ticket fare within 3 business days. This measure is implemented solely to avoid instances of non-attendance.</t>
-  </si>
-  <si>
-    <t>Date/Time: 23 Dec, 6-8pm
-Place:  Yorimichi
-Address:  6001 Beach Road, #01-02 GOLDEN MILE TOWER Singapore 199589
-How to Get there (for MRT)
-- Nicholl Highway MRT, Exit A
-- Walk along the bridge and look out for the stair leading down to St. John HQ
-- Walk a short distance and you'd reached.</t>
   </si>
   <si>
     <t xml:space="preserve">[EVENT UPDATE] </t>
@@ -292,28 +278,7 @@
 We sincerely thank you for your participation in our event and hope to see you again in the future.</t>
   </si>
   <si>
-    <t>CONFIRMED</t>
-  </si>
-  <si>
-    <t>CONFIRMED WITH REMINDER</t>
-  </si>
-  <si>
     <t xml:space="preserve">[EVENT CONFIRMED &amp; REMINDER] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-[CONTACT ON EVENT DAY ONLY]
-Tel: 87601459
-WhatsApp: WhatsApp https://wa.me/6587601459
-NOTE: This tel is SWITCHED ON ONLY on the day of the event for facilitation purposes.
-AOB, pls contact us on innersoulverse@gmail.com
-[INFO]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Live Life Love Life
-Jamaica G. </t>
   </si>
   <si>
     <t>WOLF</t>
@@ -436,6 +401,42 @@
 Full refund: 
 Event cancelled by organisor.
 Please allow up to 3 business days for the refund.</t>
+  </si>
+  <si>
+    <t>Singles Lazy Sunday KTV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Live Life Love Life
+Jamaica G. </t>
+  </si>
+  <si>
+    <t>Singles Private Dining</t>
+  </si>
+  <si>
+    <t>FINAL CONFIRMED WITH REMINDER</t>
+  </si>
+  <si>
+    <t>FINAL CONFIRMED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+[CONTACT ON EVENT DAY ONLY]
+Tel: 87601459
+WhatsApp:  https://wa.me/6587601459
+NOTE: This tel is SWITCHED ON ONLY on the day of the event for facilitation purposes.
+AOB, pls contact us on innersoulverse@gmail.com
+</t>
+  </si>
+  <si>
+    <t>[INFO]
+Date / Time: 18 Feb @ 4:00 pm
+Place:  Yorimichi
+Address:  6001 Beach Road, #01-02 GOLDEN MILE TOWER Singapore 199589
+[HOW TO GET THERE (from Nicholl Highway MRT)]
+- Take Exit A
+- Walk along the bridge and look out for the stair leading down to St. John HQ
+- Walk past St John HQ and you'd reached.</t>
   </si>
 </sst>
 </file>
@@ -901,7 +902,7 @@
     </row>
     <row r="2" spans="1:4" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B2" s="12" t="str">
         <f>CONCATENATE(A2,A4)</f>
@@ -928,7 +929,7 @@
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1"/>
     </row>
@@ -946,7 +947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView topLeftCell="D2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -976,7 +977,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
@@ -997,10 +998,10 @@
         <v>13</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
@@ -1008,7 +1009,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>21</v>
@@ -1035,10 +1036,10 @@
         <v>19</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1049,7 +1050,7 @@
       <c r="A4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1068,7 +1069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
@@ -1087,7 +1088,7 @@
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B2" s="14" t="str">
         <f>CONCATENATE(A2,A6)</f>
@@ -1110,19 +1111,19 @@
     </row>
     <row r="4" spans="1:4" ht="270" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B4" s="16"/>
     </row>
     <row r="5" spans="1:4" ht="240" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1136,16 +1137,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="78.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="65.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="110.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="71.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="57.42578125" style="2" customWidth="1"/>
@@ -1158,64 +1160,68 @@
         <v>11</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="str">
-        <f>CONCATENATE(B3,B4,B5,B6,B7,B8)</f>
-        <v xml:space="preserve">[EVENT CONFIRMED] Singles Ice Dreams (Ice-Cream Workshop)
+        <f>CONCATENATE(B3,B4,B5,B6,B8,B9)</f>
+        <v xml:space="preserve">[EVENT CONFIRMED] Singles Private Dining
 Dear attendees,
 The event is confirmed, please take note of the following
 [CONTACT ON EVENT DAY ONLY]
 Tel: 87601459
-WhatsApp: WhatsApp https://wa.me/6587601459
+WhatsApp:  https://wa.me/6587601459
 NOTE: This tel is SWITCHED ON ONLY on the day of the event for facilitation purposes.
 AOB, pls contact us on innersoulverse@gmail.com
 [INFO]
-Date / Time: 26 Dec (Sun) @ 2:00 pm
-Place: Ice Cream Chefs
-Address: 12 Jln Kuras, Singapore 577727
+Date / Time: 18 Feb @ 4:00 pm
+Place:  Yorimichi
+Address:  6001 Beach Road, #01-02 GOLDEN MILE TOWER Singapore 199589
+[HOW TO GET THERE (from Nicholl Highway MRT)]
+- Take Exit A
+- Walk along the bridge and look out for the stair leading down to St. John HQ
+- Walk past St John HQ and you'd reached.
 Live Life Love Life
 Jamaica G. </v>
       </c>
       <c r="C2" s="1" t="str">
-        <f>CONCATENATE(C3,C4,C5,C6,C7,C8)</f>
-        <v xml:space="preserve">[EVENT CONFIRMED &amp; REMINDER] Singles Ice Dreams (Ice-Cream Workshop)
+        <f>CONCATENATE(C3,C4,C5,C6,C8,C9)</f>
+        <v xml:space="preserve">[EVENT CONFIRMED &amp; REMINDER] Singles Lazy Sunday KTV
 Dear attendees,
 The event is confirmed, please take note of the following
 1) There is a minimum spending requirement of $20 at the restaurant.
 2) Upon your attendance, you will receive a refund for the ticket fare within 3 business days. This measure is implemented solely to avoid instances of non-attendance.
 [CONTACT ON EVENT DAY ONLY]
 Tel: 87601459
-WhatsApp: WhatsApp https://wa.me/6587601459
+WhatsApp:  https://wa.me/6587601459
 NOTE: This tel is SWITCHED ON ONLY on the day of the event for facilitation purposes.
 AOB, pls contact us on innersoulverse@gmail.com
 [INFO]
-Date/Time: 23 Dec, 6-8pm
+Date / Time: 18 Feb @ 4:00 pm
 Place:  Yorimichi
 Address:  6001 Beach Road, #01-02 GOLDEN MILE TOWER Singapore 199589
-How to Get there (for MRT)
-- Nicholl Highway MRT, Exit A
+[HOW TO GET THERE (from Nicholl Highway MRT)]
+- Take Exit A
 - Walk along the bridge and look out for the stair leading down to St. John HQ
-- Walk a short distance and you'd reached.
+- Walk past St John HQ and you'd reached.
 Live Life Love Life
 Jamaica G. </v>
       </c>
       <c r="D2" s="1" t="str">
-        <f>CONCATENATE(D3,D4,D5,D6,D7,D8)</f>
+        <f>CONCATENATE(D3,D4,D5,D6,D8,D9)</f>
         <v xml:space="preserve">[EVENT UPDATE] Singles Ice Dreams (Ice-Cream Workshop)
 Dear attendees,
 An update.
@@ -1226,7 +1232,7 @@
 Jamaica G. </v>
       </c>
       <c r="E2" s="1" t="str">
-        <f>CONCATENATE(E3,E4,E5,E6,E7,E8)</f>
+        <f>CONCATENATE(E3,E4,E5,E6,E8,E9)</f>
         <v xml:space="preserve">[EVENT CANCELLED] Singles Ice Dreams (Ice-Cream Workshop)
 Dear attendees,
 It is with disappointment that we announce the cancellation of the event due to an imbalance in the gender ratio. Refunds will be processed. And you will received them within 3-5 working days (as advised by the platform)
@@ -1238,24 +1244,24 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>25</v>
@@ -1266,50 +1272,56 @@
     </row>
     <row r="5" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="10"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>38</v>
+    <row r="8" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/event excel.xlsx
+++ b/event excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="impt" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
   <si>
     <t>IMPORTANT</t>
   </si>
@@ -135,43 +135,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Event Title::
-Singles Mystery Golf
-Event Summary:
-Mystery solving and mini golfing? Who knows what unexpected adventures may unfold?
-Event:
-It's time to spice up your dating life and create memories that will last a lifetime. Embrace the golfing and mystery. No prior golf experience needed. 
-Mini golf session
-We anticipate an attendance of 8-10 participants.
-Rotation occur mid way through the game.
-Requirements:
-For ladies age 25 - 42.
-For gentlemen age 25 - 45.
-Participants are shall be of unmarried marital status (single/annulled/divorced/widowed)
-Participants are to present proof of the abovementioned requirements (eg, Singpass). 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event Title:
-Singles Dining In The Dark
-Event Summary:
-Experience a unique dining in the dark dating event, where our taste buds awaken and our genuine connection forms
-Event:
-Dining event.
-This event takes place in a completely dark venue.
-8﻿ dish meal is provided. The chef determines the food served, leading to variations from one event to another.
-Trained staff will be available to assist participants in navigating through the darkness.
-We anticipate an attendance of 10-14 participants.
-Rotation occur approximately every 8-10 minutes.
-Dietary allergies and dietary requirements can be arranged.
-The event will only proceed when the gender ratio are relatively balanced. 
-Requirements:
-For gentlemen age 30-42.
-For ladies age 28-40.
-Participants are shall be of unmarried marital status (single/annulled/divorced/widowed)
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Event Brite (GREEN)
 Event Title:
 Singles Vegan Dining
@@ -297,12 +260,6 @@
     <t>UPDATE EMAIL</t>
   </si>
   <si>
-    <t xml:space="preserve">[IMPORTANT. PLEASE READ]
-This event will only Proceed when the number of attendees has reached and the gender ratio are relatively balanced. 
-Please look up for our email for updates 3 to 5 days prior to the event.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Event Title:
 Singles Ice Dreams (Ice-Cream Workshop)
 Event Summary:
@@ -360,13 +317,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[ADDITIONAL INFORMATION]
-The arrangement of the event may be adjusted to accommodate the number of participants.
-If you're slightly outside the age range, please check with us before purchasing.
-Contact us:   Visit us: www.innersoulverse.com | i﻿nnersoulverse@gmail.com
-</t>
-  </si>
-  <si>
     <t>[CANCELLATION &amp; REFUND] 
 NOTE: Please contact us directly.
 Cancellation made more than 21 days from event: Refund 100% of ticket price
@@ -384,19 +334,6 @@
   <si>
     <t>[CANCELLATION &amp; REFUND] 
 NOTE: Please contact us directly.
-Cancellation made more than 21 days from event: Refund 100% of ticket price
-Cancellation made more than 14 days from event: Refund 75% of ticket price
-No Refund: 
-Once the timing of the slot has been booked
-For participants who don't meet the event's requirements
-Full refund: 
-Event cancelled by organisor.
-In the event of significant changes, such as alterations to the location. Important to note that attendees have a 48-hour window to respond to these changes. In addition, no refunds will be provided for changes explicitly highlighted and expected in advance.
-Please allow up to 3 business days for the refund.</t>
-  </si>
-  <si>
-    <t>[CANCELLATION &amp; REFUND] 
-NOTE: Please contact us directly.
 No Refunds. Unless otherwise stated.
 Full refund: 
 Event cancelled by organisor.
@@ -438,12 +375,78 @@
 - Walk along the bridge and look out for the stair leading down to St. John HQ
 - Walk past St John HQ and you'd reached.</t>
   </si>
+  <si>
+    <t xml:space="preserve">[IMPORTANT. PLEASE READ]
+This event will only Proceed when the number of attendees has reached and the gender ratio are relatively balanced. 
+Registered attendees, please look up for our email for updates 3 to 5 days prior to the event.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event Title:
+Singles Dining In The Dark
+Event Summary:
+Experience a unique dining in the dark dating event, where our taste buds awaken and our genuine connection forms
+[EVENT]
+Dining event.
+This event takes place in a relatively dark venue.
+Dinner includes starters, sushi, yakitori, mains, and dessert (plain water is provided)
+Trained staff will be available to assist participants in navigating through the darkness.
+We anticipate an attendance of 8-12 participants.
+Rotation occur approximately every 8-10 minutes.
+[REQUIREMENT]
+For gentlemen age 28-45.
+For ladies age 28-45.
+Participants are shall be of unmarried marital status (single/annulled/divorced/widowed)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ADDITIONAL INFORMATION]
+The arrangement of the event may be adjusted to accommodate the number of participants.
+If you're slightly outside the age range, please check with us before purchasing.
+visit us: www.innersoulverse.com  OR email us: innersoulverse@gmail.com
+</t>
+  </si>
+  <si>
+    <t>[CANCELLATION &amp; REFUND] 
+NOTE: Please contact us directly.
+Cancellation made more than 21 days from event: Refund 75% of ticket price
+No Refund: 
+Once the timing of the slot has been booked
+For participants who don't meet the event's requirements
+Full refund: 
+Event cancelled by organisor.
+In the event of significant changes, such as alterations to the location. Important to note that attendees have a 48-hour window to respond to these changes. In addition, no refunds will be provided for changes explicitly highlighted and expected in advance.
+Please allow up to 3 business days for the refund.</t>
+  </si>
+  <si>
+    <t>Kulnari</t>
+  </si>
+  <si>
+    <t>Dining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event Title::
+Singles Mystery Golf
+Event Summary:
+Mystery solving and mini golfing? Who knows what unexpected adventures may unfold?
+[EVENT]
+It's time to spice up your dating life and create memories that will last a lifetime. Embrace the golfing and mystery. No prior golf experience needed. 
+Mini golf session
+We anticipate an attendance of 8-10 participants.
+Rotation occur mid way through the game.
+[REQUIREMENT]
+For ladies age 25 - 45.
+For gentlemen age 25 - 45.
+Participants are shall be of unmarried marital status (single/annulled/divorced/widowed)
+Participants are to present proof of the abovementioned requirements (eg, Singpass). 
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,6 +471,13 @@
     </font>
     <font>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -552,7 +562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -601,6 +611,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -885,7 +898,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,16 +915,14 @@
     </row>
     <row r="2" spans="1:4" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B2" s="12" t="str">
-        <f>CONCATENATE(A2,A4)</f>
-        <v>[IMPORTANT. PLEASE READ]
+        <f>CONCATENATE(A2,A6)</f>
+        <v xml:space="preserve">[IMPORTANT. PLEASE READ]
 This event will only Proceed when the number of attendees has reached and the gender ratio are relatively balanced. 
-Please look up for our email for updates 3 to 5 days prior to the event.
-There is a minimum spending requirement of $20 at the restaurant.
-No refunds after purchase.
-However, upon your attendance, you will receive a full refund for the ticket fare within 3 business days. This measure is implemented solely to avoid instances of non-attendance.</v>
+Registered attendees, please look up for our email for updates 3 to 5 days prior to the event.
+</v>
       </c>
       <c r="D2" s="11"/>
     </row>
@@ -929,7 +940,7 @@
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1"/>
     </row>
@@ -947,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,7 +988,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
@@ -998,30 +1009,30 @@
         <v>13</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>17</v>
@@ -1033,13 +1044,13 @@
         <v>18</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1050,7 +1061,7 @@
       <c r="A4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1067,71 +1078,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="82.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="82.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="C1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="7"/>
       <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="14" t="str">
-        <f>CONCATENATE(A2,A6)</f>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="14" t="str">
+        <f>CONCATENATE(B2,B4)</f>
         <v>[ADDITIONAL INFORMATION]
 The arrangement of the event may be adjusted to accommodate the number of participants.
 If you're slightly outside the age range, please check with us before purchasing.
-Contact us:   Visit us: www.innersoulverse.com | i﻿nnersoulverse@gmail.com
+visit us: www.innersoulverse.com  OR email us: innersoulverse@gmail.com
 [CANCELLATION &amp; REFUND] 
 NOTE: Please contact us directly.
-No Refunds. Unless otherwise stated.
+Cancellation made more than 21 days from event: Refund 100% of ticket price
+Cancellation made more than 14 days from event: Refund 75% of ticket price
+Cancellation made more than  07 days from event: Refund 50% of ticket price
+Cancellation made more than 72 hour from event: Refund 10% of ticket price
+No Refund: 
+For cancellation less than 72 hrs from event
+For participants who don't meet the event's requirements
 Full refund: 
 Event cancelled by organisor.
+In the event of significant changes, such as alterations to the location. Important to note that attendees have a 48-hour window to respond to these changes. In addition, no refunds will be provided for changes explicitly highlighted and expected in advance.
 Please allow up to 3 business days for the refund.</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" ht="270" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="16"/>
-    </row>
-    <row r="5" spans="1:4" ht="240" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>47</v>
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="12"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="312" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="16"/>
+    </row>
+    <row r="5" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1139,7 +1168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
@@ -1160,13 +1189,13 @@
         <v>11</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>14</v>
@@ -1244,52 +1273,52 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>30</v>
-      </c>
       <c r="E5" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="10"/>
@@ -1302,26 +1331,26 @@
     </row>
     <row r="8" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/event excel.xlsx
+++ b/event excel.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="impt" sheetId="2" r:id="rId1"/>
     <sheet name="event" sheetId="1" r:id="rId2"/>
     <sheet name="add info" sheetId="4" r:id="rId3"/>
     <sheet name="email" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
   <si>
     <t>IMPORTANT</t>
   </si>
@@ -86,9 +87,6 @@
   </si>
   <si>
     <t>GOLF</t>
-  </si>
-  <si>
-    <t>CANCELLED EMAIL</t>
   </si>
   <si>
     <t xml:space="preserve">We will notify you to proceed with the Payment (see below price) through Paynow. This step secures your reservation and allows us to effectively plan for the event and reduce the possibility of no-shows. 
@@ -209,11 +207,6 @@
     <t>Singles Ice Dreams (Ice-Cream Workshop)</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Dear attendees,
-The event is confirmed, please take note of the following</t>
-  </si>
-  <si>
     <t xml:space="preserve">[EVENT CONFIRMED] </t>
   </si>
   <si>
@@ -247,17 +240,11 @@
     <t>WOLF</t>
   </si>
   <si>
-    <t>PRIVATEDINE</t>
-  </si>
-  <si>
     <t>Actual timing will depend on the day of booking ( 5-7 days from actual day)
 Once booking has been annouced, no cancellation is allowed. (Case by case)</t>
   </si>
   <si>
     <t xml:space="preserve">[EVENT CANCELLED] </t>
-  </si>
-  <si>
-    <t>UPDATE EMAIL</t>
   </si>
   <si>
     <t xml:space="preserve">Event Title:
@@ -281,23 +268,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Event Title::
-Singles Private Dining
-Event Summary:
-Savor a six-course meal in a private setting for meaningful conversations and connections
-[EVENT]
-A specially prepared six-course meal awaits your enjoyment, with the venue exclusively reserved for you. Revel in undisturbed conversations and meaningful connections in this unique setting.
-- Dinner includes starters, sushi, yakitori, mains, sides and dessert (plain water is provided)
-- We anticipate an attendance of 8-12 participants.
-- Rotation occur approximately every 10-12 minutes.
-[REQUIREMENT]
-For ladies age 28 - 45.
-For gentlemen age 28 - 45.
-Participants are shall be of unmarried marital status (single/annulled/divorced/widowed)
-Participants are to present proof of the abovementioned requirements (eg, Singpass). 
-</t>
-  </si>
-  <si>
     <t>SPIRIT</t>
   </si>
   <si>
@@ -319,21 +289,6 @@
   <si>
     <t>[CANCELLATION &amp; REFUND] 
 NOTE: Please contact us directly.
-Cancellation made more than 21 days from event: Refund 100% of ticket price
-Cancellation made more than 14 days from event: Refund 75% of ticket price
-Cancellation made more than  07 days from event: Refund 50% of ticket price
-Cancellation made more than 72 hour from event: Refund 10% of ticket price
-No Refund: 
-For cancellation less than 72 hrs from event
-For participants who don't meet the event's requirements
-Full refund: 
-Event cancelled by organisor.
-In the event of significant changes, such as alterations to the location. Important to note that attendees have a 48-hour window to respond to these changes. In addition, no refunds will be provided for changes explicitly highlighted and expected in advance.
-Please allow up to 3 business days for the refund.</t>
-  </si>
-  <si>
-    <t>[CANCELLATION &amp; REFUND] 
-NOTE: Please contact us directly.
 No Refunds. Unless otherwise stated.
 Full refund: 
 Event cancelled by organisor.
@@ -348,32 +303,10 @@
 Jamaica G. </t>
   </si>
   <si>
-    <t>Singles Private Dining</t>
-  </si>
-  <si>
     <t>FINAL CONFIRMED WITH REMINDER</t>
   </si>
   <si>
     <t>FINAL CONFIRMED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-[CONTACT ON EVENT DAY ONLY]
-Tel: 87601459
-WhatsApp:  https://wa.me/6587601459
-NOTE: This tel is SWITCHED ON ONLY on the day of the event for facilitation purposes.
-AOB, pls contact us on innersoulverse@gmail.com
-</t>
-  </si>
-  <si>
-    <t>[INFO]
-Date / Time: 18 Feb @ 4:00 pm
-Place:  Yorimichi
-Address:  6001 Beach Road, #01-02 GOLDEN MILE TOWER Singapore 199589
-[HOW TO GET THERE (from Nicholl Highway MRT)]
-- Take Exit A
-- Walk along the bridge and look out for the stair leading down to St. John HQ
-- Walk past St John HQ and you'd reached.</t>
   </si>
   <si>
     <t xml:space="preserve">[IMPORTANT. PLEASE READ]
@@ -407,18 +340,6 @@
 </t>
   </si>
   <si>
-    <t>[CANCELLATION &amp; REFUND] 
-NOTE: Please contact us directly.
-Cancellation made more than 21 days from event: Refund 75% of ticket price
-No Refund: 
-Once the timing of the slot has been booked
-For participants who don't meet the event's requirements
-Full refund: 
-Event cancelled by organisor.
-In the event of significant changes, such as alterations to the location. Important to note that attendees have a 48-hour window to respond to these changes. In addition, no refunds will be provided for changes explicitly highlighted and expected in advance.
-Please allow up to 3 business days for the refund.</t>
-  </si>
-  <si>
     <t>Kulnari</t>
   </si>
   <si>
@@ -441,12 +362,226 @@
 Participants are to present proof of the abovementioned requirements (eg, Singpass). 
 </t>
   </si>
+  <si>
+    <t>TICKET CLARIFICATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Hi &lt;Name&gt;
+According to our records, it seems you've acquired a ticket reserved for &lt;Gender&gt; attendees. Given your name, there's a possibility of a mistaken ticket purchase or perhaps you have bought it on behalf of someone of an opposite gender (it happens). If this is the case, do let us know for reference.</t>
+  </si>
+  <si>
+    <t>Singles Dining In The Dark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[TICKET CLARIFICATION] </t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+[CONTACT ON EVENT DAY ONLY]
+- Tel: 87601459
+- WhatsApp:  https://wa.me/6587601459
+NOTE: This tel is SWITCHED ON ONLY on the day of the event for facilitation purposes. AOB, pls contact us on innersoulverse@gmail.com
+</t>
+  </si>
+  <si>
+    <t>EVENT UPDATES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVENT CANCELLED </t>
+  </si>
+  <si>
+    <t>TICKET REFUND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[TICKET REFUND </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Hi &lt;Name&gt;
+Sorry to hear about that. 
+The refund of &lt;perc&gt; amounts to &lt;amt&gt;.
+However, if we do get a replacement in time, we will proceed with issuing a full refund. However, this will only occur on the day of the event.
+Would that work for you ?
+Note: Peatix currently do not allow partial refunds. Kindly provide a paynow contact number.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[CANCELLATION &amp; REFUND] 
+NOTE: Please contact us directly.
+Cancellation made more than 21 days from event: Refund 100% of ticket price
+Cancellation made more than 14 days from event: Refund 75% of ticket price
+Cancellation made more than  07 days from event: Refund 50% of ticket price
+Cancellation made more than 72 hour from event: Refund 10% of ticket price
+Note: Refunds will include the ticket price less the Ticketing Fees (which consist of the platform's payment processing fee and the service fee combined) 
+No Refund: 
+For cancellation less than 72 hrs from event
+For participants who don't meet the event's requirements
+Full refund: 
+Event cancelled by organisor.
+In the event of significant changes, such as alterations to the location. Important to note that attendees have a 48-hour window to respond to these changes. In addition, no refunds will be provided for changes explicitly highlighted and expected in advance.
+Please allow up to 3 business days for the refund. 
+</t>
+  </si>
+  <si>
+    <t>[CANCELLATION &amp; REFUND] 
+NOTE: Please contact us directly.
+Cancellation made more than 21 days from event: Refund 75% of ticket price
+Note: Refunds will include the ticket price less the Ticketing Fees (which consist of the platform's payment processing fee and the service fee combined) 
+No Refund: 
+Once the timing of the slot has been booked
+For participants who don't meet the event's requirements
+Full refund: 
+Event cancelled by organisor.
+In the event of significant changes, such as alterations to the location. Important to note that attendees have a 48-hour window to respond to these changes. In addition, no refunds will be provided for changes explicitly highlighted and expected in advance.
+Please allow up to 3 business days for the refund.</t>
+  </si>
+  <si>
+    <t>Singles Mystery Golf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Dear attendees,
+The event has been confirmed. Kindly respond to this email with your name and  mobile contact number &lt;name: mobile&gt; for a smoother coordination. </t>
+  </si>
+  <si>
+    <t>msppsm@hotmail.com;</t>
+  </si>
+  <si>
+    <t>ye3wei@gmail.com;</t>
+  </si>
+  <si>
+    <t>limxinwei82@gmail.com;</t>
+  </si>
+  <si>
+    <t>annannchin@gmail.com;</t>
+  </si>
+  <si>
+    <t>chinjiahui90@hotmail.com;</t>
+  </si>
+  <si>
+    <t>herlynd@gmail.com;</t>
+  </si>
+  <si>
+    <t>calvintay93@hotmail.com;</t>
+  </si>
+  <si>
+    <t>yamamoto.96@hotmail.com;</t>
+  </si>
+  <si>
+    <t>quaaludes81@hotmail.com;</t>
+  </si>
+  <si>
+    <t>msppsm@hotmail.com;ye3wei@gmail.com;limxinwei82@gmail.com;annannchin@gmail.com;chinjiahui90@hotmail.com;herlynd@gmail.com;calvintay93@hotmail.com;yamamoto.96@hotmail.com;quaaludes81@hotmail.com;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+[INFO]
+Date / Time: 04 May @ 10.45am
+Place:  Kulnari
+Address:  51B Circular Road Singapore 049406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+[INFO]
+Date / Time: 18 Feb @ 4:00 pm
+Place:  Yorimichi
+Address:  6001 Beach Road, #01-02 GOLDEN MILE TOWER Singapore 199589
+[HOW TO GET THERE (from Nicholl Highway MRT)]
+- Take Exit A
+- Walk along the bridge and look out for the stair leading down to St. John HQ
+- Walk past St John HQ and you'd reach.</t>
+  </si>
+  <si>
+    <t>TABLE FOR SIX</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Event Title::
+Singles Table for Six </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Sports Enthusiasts)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Event Summary:
+Connect with individuals who enjoy sports as much as you do. You can be a weekend cyclist, or a half-marathon hopeful. Share your sports experiences, exchange training tips, and perhaps a future date to sweat it out together 
+[EVENT]
+- Dinner includes starters, sushi, yakitori, mains, sides and dessert (plain water is provided)
+- We anticipate an attendance of 5-6 participants.
+[REQUIREMENT]
+For ladies age 28 - 45.
+For gentlemen age 28 - 45.
+Participants are shall be of unmarried marital status (single/annulled/divorced/widowed)
+Participants are to present proof of the abovementioned requirements (eg, Singpass). 
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Event Title::
+Singles Table for Six (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Culture Lovers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+Event Summary:
+Connect with individuals who cherishes the arts, music, film, dance or any form of cultural expression. Exchange insights on beloved musicians, top Netflix picks, favorite Latin dance styles, and more.
+[EVENT]
+- Dinner includes starters, sushi, yakitori, mains, sides and dessert (plain water is provided)
+- We anticipate an attendance of 5-6 participants.
+[REQUIREMENT]
+For ladies age 28 - 45.
+For gentlemen age 28 - 45.
+Participants are shall be of unmarried marital status (single/annulled/divorced/widowed)
+Participants are to present proof of the abovementioned requirements (eg, Singpass). 
+</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,6 +613,28 @@
     </font>
     <font>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -559,10 +716,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -597,6 +757,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -612,12 +776,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Percent 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -908,16 +1072,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="15"/>
     </row>
     <row r="2" spans="1:4" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="12" t="str">
+        <v>41</v>
+      </c>
+      <c r="B2" s="14" t="str">
         <f>CONCATENATE(A2,A6)</f>
         <v xml:space="preserve">[IMPORTANT. PLEASE READ]
 This event will only Proceed when the number of attendees has reached and the gender ratio are relatively balanced. 
@@ -928,19 +1092,19 @@
     </row>
     <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="12"/>
+        <v>14</v>
+      </c>
+      <c r="B3" s="14"/>
     </row>
     <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="12"/>
+        <v>15</v>
+      </c>
+      <c r="B4" s="14"/>
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1"/>
     </row>
@@ -958,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,7 +1152,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
@@ -1009,59 +1173,61 @@
         <v>13</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1080,8 +1246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,12 +1265,12 @@
       <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="14" t="str">
+      <c r="B2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="16" t="str">
         <f>CONCATENATE(B2,B4)</f>
-        <v>[ADDITIONAL INFORMATION]
+        <v xml:space="preserve">[ADDITIONAL INFORMATION]
 The arrangement of the event may be adjusted to accommodate the number of participants.
 If you're slightly outside the age range, please check with us before purchasing.
 visit us: www.innersoulverse.com  OR email us: innersoulverse@gmail.com
@@ -1114,44 +1280,46 @@
 Cancellation made more than 14 days from event: Refund 75% of ticket price
 Cancellation made more than  07 days from event: Refund 50% of ticket price
 Cancellation made more than 72 hour from event: Refund 10% of ticket price
+Note: Refunds will include the ticket price less the Ticketing Fees (which consist of the platform's payment processing fee and the service fee combined) 
 No Refund: 
 For cancellation less than 72 hrs from event
 For participants who don't meet the event's requirements
 Full refund: 
 Event cancelled by organisor.
 In the event of significant changes, such as alterations to the location. Important to note that attendees have a 48-hour window to respond to these changes. In addition, no refunds will be provided for changes explicitly highlighted and expected in advance.
-Please allow up to 3 business days for the refund.</v>
+Please allow up to 3 business days for the refund. 
+</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="12"/>
-      <c r="C3" s="15"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="312" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>55</v>
+      <c r="A4" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="16"/>
-    </row>
-    <row r="5" spans="1:5" ht="240" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>54</v>
+        <v>59</v>
+      </c>
+      <c r="C4" s="18"/>
+    </row>
+    <row r="5" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1166,11 +1334,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,40 +1349,60 @@
     <col min="4" max="4" width="71.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="57.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="109.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="7" max="7" width="54" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="G1" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="str">
         <f>CONCATENATE(B3,B4,B5,B6,B8,B9)</f>
-        <v xml:space="preserve">[EVENT CONFIRMED] Singles Private Dining
+        <v xml:space="preserve">[EVENT CONFIRMED] Singles Mystery Golf
+Dear attendees,
+The event has been confirmed. Kindly respond to this email with your name and  mobile contact number &lt;name: mobile&gt; for a smoother coordination. 
+[INFO]
+Date / Time: 04 May @ 10.45am
+Place:  Kulnari
+Address:  51B Circular Road Singapore 049406
+[CONTACT ON EVENT DAY ONLY]
+- Tel: 87601459
+- WhatsApp:  https://wa.me/6587601459
+NOTE: This tel is SWITCHED ON ONLY on the day of the event for facilitation purposes. AOB, pls contact us on innersoulverse@gmail.com
+Live Life Love Life
+Jamaica G. </v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>CONCATENATE(C3,C4,C5,C6,C8,C9)</f>
+        <v xml:space="preserve">[EVENT CONFIRMED &amp; REMINDER] Singles Lazy Sunday KTV
 Dear attendees,
 The event is confirmed, please take note of the following
-[CONTACT ON EVENT DAY ONLY]
-Tel: 87601459
-WhatsApp:  https://wa.me/6587601459
-NOTE: This tel is SWITCHED ON ONLY on the day of the event for facilitation purposes.
-AOB, pls contact us on innersoulverse@gmail.com
+1) There is a minimum spending requirement of $20 at the restaurant.
+2) Upon your attendance, you will receive a refund for the ticket fare within 3 business days. This measure is implemented solely to avoid instances of non-attendance.
 [INFO]
 Date / Time: 18 Feb @ 4:00 pm
 Place:  Yorimichi
@@ -1222,30 +1410,11 @@
 [HOW TO GET THERE (from Nicholl Highway MRT)]
 - Take Exit A
 - Walk along the bridge and look out for the stair leading down to St. John HQ
-- Walk past St John HQ and you'd reached.
-Live Life Love Life
-Jamaica G. </v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <f>CONCATENATE(C3,C4,C5,C6,C8,C9)</f>
-        <v xml:space="preserve">[EVENT CONFIRMED &amp; REMINDER] Singles Lazy Sunday KTV
-Dear attendees,
-The event is confirmed, please take note of the following
-1) There is a minimum spending requirement of $20 at the restaurant.
-2) Upon your attendance, you will receive a refund for the ticket fare within 3 business days. This measure is implemented solely to avoid instances of non-attendance.
+- Walk past St John HQ and you'd reach.
 [CONTACT ON EVENT DAY ONLY]
-Tel: 87601459
-WhatsApp:  https://wa.me/6587601459
-NOTE: This tel is SWITCHED ON ONLY on the day of the event for facilitation purposes.
-AOB, pls contact us on innersoulverse@gmail.com
-[INFO]
-Date / Time: 18 Feb @ 4:00 pm
-Place:  Yorimichi
-Address:  6001 Beach Road, #01-02 GOLDEN MILE TOWER Singapore 199589
-[HOW TO GET THERE (from Nicholl Highway MRT)]
-- Take Exit A
-- Walk along the bridge and look out for the stair leading down to St. John HQ
-- Walk past St John HQ and you'd reached.
+- Tel: 87601459
+- WhatsApp:  https://wa.me/6587601459
+NOTE: This tel is SWITCHED ON ONLY on the day of the event for facilitation purposes. AOB, pls contact us on innersoulverse@gmail.com
 Live Life Love Life
 Jamaica G. </v>
       </c>
@@ -1269,89 +1438,240 @@
 Live Life Love Life
 Jamaica G. </v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="str">
+        <f>CONCATENATE(F3,F4,F5,F9)</f>
+        <v xml:space="preserve">[TICKET CLARIFICATION] Singles Dining In The Dark
+Hi &lt;Name&gt;
+According to our records, it seems you've acquired a ticket reserved for &lt;Gender&gt; attendees. Given your name, there's a possibility of a mistaken ticket purchase or perhaps you have bought it on behalf of someone of an opposite gender (it happens). If this is the case, do let us know for reference.
+Live Life Love Life
+Jamaica G. </v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <f>CONCATENATE(G3,G4,G5,G9)</f>
+        <v xml:space="preserve">[TICKET REFUND Singles Dining In The Dark
+Hi &lt;Name&gt;
+Sorry to hear about that. 
+The refund of &lt;perc&gt; amounts to &lt;amt&gt;.
+However, if we do get a replacement in time, we will proceed with issuing a full refund. However, this will only occur on the day of the event.
+Would that work for you ?
+Note: Peatix currently do not allow partial refunds. Kindly provide a paynow contact number.
+Live Life Love Life
+Jamaica G. </v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="225" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>48</v>
+      <c r="G5" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>49</v>
+    <row r="8" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>CONCATENATE(A2,A3,A4,A5,A6,A7,A8,A9,A10)</f>
+        <v>msppsm@hotmail.com;ye3wei@gmail.com;limxinwei82@gmail.com;annannchin@gmail.com;chinjiahui90@hotmail.com;herlynd@gmail.com;calvintay93@hotmail.com;yamamoto.96@hotmail.com;quaaludes81@hotmail.com;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/event excel.xlsx
+++ b/event excel.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="impt" sheetId="2" r:id="rId1"/>
     <sheet name="event" sheetId="1" r:id="rId2"/>
     <sheet name="add info" sheetId="4" r:id="rId3"/>
     <sheet name="email" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="menu" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="107">
   <si>
     <t>IMPORTANT</t>
   </si>
@@ -309,12 +310,6 @@
     <t>FINAL CONFIRMED</t>
   </si>
   <si>
-    <t xml:space="preserve">[IMPORTANT. PLEASE READ]
-This event will only Proceed when the number of attendees has reached and the gender ratio are relatively balanced. 
-Registered attendees, please look up for our email for updates 3 to 5 days prior to the event.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Event Title:
 Singles Dining In The Dark
 Event Summary:
@@ -377,9 +372,6 @@
     <t xml:space="preserve">[TICKET CLARIFICATION] </t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
     <t>;</t>
   </si>
   <si>
@@ -410,23 +402,6 @@
 However, if we do get a replacement in time, we will proceed with issuing a full refund. However, this will only occur on the day of the event.
 Would that work for you ?
 Note: Peatix currently do not allow partial refunds. Kindly provide a paynow contact number.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[CANCELLATION &amp; REFUND] 
-NOTE: Please contact us directly.
-Cancellation made more than 21 days from event: Refund 100% of ticket price
-Cancellation made more than 14 days from event: Refund 75% of ticket price
-Cancellation made more than  07 days from event: Refund 50% of ticket price
-Cancellation made more than 72 hour from event: Refund 10% of ticket price
-Note: Refunds will include the ticket price less the Ticketing Fees (which consist of the platform's payment processing fee and the service fee combined) 
-No Refund: 
-For cancellation less than 72 hrs from event
-For participants who don't meet the event's requirements
-Full refund: 
-Event cancelled by organisor.
-In the event of significant changes, such as alterations to the location. Important to note that attendees have a 48-hour window to respond to these changes. In addition, no refunds will be provided for changes explicitly highlighted and expected in advance.
-Please allow up to 3 business days for the refund. 
-</t>
   </si>
   <si>
     <t>[CANCELLATION &amp; REFUND] 
@@ -477,9 +452,6 @@
     <t>quaaludes81@hotmail.com;</t>
   </si>
   <si>
-    <t>msppsm@hotmail.com;ye3wei@gmail.com;limxinwei82@gmail.com;annannchin@gmail.com;chinjiahui90@hotmail.com;herlynd@gmail.com;calvintay93@hotmail.com;yamamoto.96@hotmail.com;quaaludes81@hotmail.com;</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 [INFO]
 Date / Time: 04 May @ 10.45am
@@ -499,6 +471,102 @@
   </si>
   <si>
     <t>TABLE FOR SIX</t>
+  </si>
+  <si>
+    <t>8750 3069</t>
+  </si>
+  <si>
+    <t>Chin Ann</t>
+  </si>
+  <si>
+    <t>Jia hui</t>
+  </si>
+  <si>
+    <t>Lyn</t>
+  </si>
+  <si>
+    <t>Calvin</t>
+  </si>
+  <si>
+    <t>Kelvin</t>
+  </si>
+  <si>
+    <t>Hwee Xuan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tracy Tay </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIM XIN WEI </t>
+  </si>
+  <si>
+    <t>tuinkuanpoh@gmail.com;</t>
+  </si>
+  <si>
+    <t>Tuin Kuan Poh</t>
+  </si>
+  <si>
+    <t>96636485 </t>
+  </si>
+  <si>
+    <t>Table for six</t>
+  </si>
+  <si>
+    <t>Chicken wing</t>
+  </si>
+  <si>
+    <t>Per Serving Cost</t>
+  </si>
+  <si>
+    <t>Asparagus</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Total Cost incl Tax</t>
+  </si>
+  <si>
+    <t>Shitake</t>
+  </si>
+  <si>
+    <t>Potato Salad / Chawanmushi</t>
+  </si>
+  <si>
+    <t>Unagi</t>
+  </si>
+  <si>
+    <t>Garlic Fried Rice</t>
+  </si>
+  <si>
+    <t>per pax cost</t>
+  </si>
+  <si>
+    <t>(B) 
+item for each pax</t>
+  </si>
+  <si>
+    <t>(A)
+No of items per order</t>
+  </si>
+  <si>
+    <t>No of oders to purchase 
+( Participants x B ) / A</t>
+  </si>
+  <si>
+    <t>ice cream (by us)</t>
+  </si>
+  <si>
+    <t>Sushi</t>
+  </si>
+  <si>
+    <t>Gyoza</t>
+  </si>
+  <si>
+    <t>5 kind sushi</t>
   </si>
   <si>
     <r>
@@ -526,7 +594,7 @@
       </rPr>
       <t xml:space="preserve">
 Event Summary:
-Connect with individuals who enjoy sports as much as you do. You can be a weekend cyclist, or a half-marathon hopeful. Share your sports experiences, exchange training tips, and perhaps a future date to sweat it out together 
+Whether you are a weekend cyclist, or a half-marathon hopeful, come and connect with someone who enjoys sports as much as you do. 
 [EVENT]
 - Dinner includes starters, sushi, yakitori, mains, sides and dessert (plain water is provided)
 - We anticipate an attendance of 5-6 participants.
@@ -537,6 +605,12 @@
 Participants are to present proof of the abovementioned requirements (eg, Singpass). 
 </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[IMPORTANT. PLEASE READ]
+- This event will only Proceed when the number of attendees has reached and the gender ratio are relatively balanced. 
+- Registered attendees, please look up for our email for updates 3 to 5 days prior to the event.
+</t>
   </si>
   <si>
     <r>
@@ -564,7 +638,7 @@
       </rPr>
       <t xml:space="preserve">)
 Event Summary:
-Connect with individuals who cherishes the arts, music, film, dance or any form of cultural expression. Exchange insights on beloved musicians, top Netflix picks, favorite Latin dance styles, and more.
+Love arts, music, film? Share fave band, Netflix picks, Latin dance styles, and more! 
 [EVENT]
 - Dinner includes starters, sushi, yakitori, mains, sides and dessert (plain water is provided)
 - We anticipate an attendance of 5-6 participants.
@@ -576,12 +650,37 @@
 </t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">[CANCELLATION &amp; REFUND] 
+NOTE: Please contact us directly.
+Cancellation made more than 21 days from event: Refund 100% of ticket price
+Cancellation made more than 14 days from event: Refund 75% of ticket price
+Cancellation made more than  07 days from event: Refund 50% of ticket price
+Cancellation made more than 72 hour from event: Refund 10% of ticket price
+Note: Refunds will include the ticket price less the Ticketing Fees, i.e, Refund = ticket price - ticketing fees  
+No Refund: 
+For cancellation less than 72 hrs from event
+For participants who don't meet the event's requirements
+Full refund: 
+Event cancelled by organisor.
+In the event of significant changes, such as alterations to the location. Important to note that attendees have a 48-hour window to respond to these changes.
+Please allow up to 3 business days for the refund. 
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="General\ &quot;sets&quot;"/>
+    <numFmt numFmtId="165" formatCode="General\ &quot;Participants&quot;"/>
+    <numFmt numFmtId="166" formatCode="General\ &quot;portions&quot;"/>
+    <numFmt numFmtId="167" formatCode="General\ &quot;items&quot;"/>
+    <numFmt numFmtId="168" formatCode="General\ &quot;orders&quot;"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -634,6 +733,20 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -716,13 +829,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -761,6 +875,44 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -777,7 +929,8 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Currency" xfId="4" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
@@ -1062,7 +1215,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,20 +1225,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="14" t="str">
+        <v>104</v>
+      </c>
+      <c r="B2" s="28" t="str">
         <f>CONCATENATE(A2,A6)</f>
         <v xml:space="preserve">[IMPORTANT. PLEASE READ]
-This event will only Proceed when the number of attendees has reached and the gender ratio are relatively balanced. 
-Registered attendees, please look up for our email for updates 3 to 5 days prior to the event.
+- This event will only Proceed when the number of attendees has reached and the gender ratio are relatively balanced. 
+- Registered attendees, please look up for our email for updates 3 to 5 days prior to the event.
 </v>
       </c>
       <c r="D2" s="11"/>
@@ -1094,13 +1247,13 @@
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="28"/>
     </row>
     <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="28"/>
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -1122,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,7 +1287,7 @@
     <col min="4" max="4" width="11.28515625" style="2" customWidth="1"/>
     <col min="5" max="8" width="9.140625" style="2"/>
     <col min="9" max="9" width="24.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="2"/>
+    <col min="10" max="10" width="11.42578125" style="2" customWidth="1"/>
     <col min="11" max="11" width="21.7109375" style="2" customWidth="1"/>
     <col min="12" max="12" width="43.140625" style="2" customWidth="1"/>
     <col min="13" max="18" width="9.140625" style="2"/>
@@ -1173,7 +1326,7 @@
         <v>13</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>34</v>
@@ -1181,7 +1334,7 @@
     </row>
     <row r="2" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>32</v>
@@ -1208,10 +1361,10 @@
         <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>35</v>
@@ -1220,7 +1373,7 @@
     <row r="3" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -1246,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,10 +1418,10 @@
       <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="16" t="str">
+      <c r="B2" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="30" t="str">
         <f>CONCATENATE(B2,B4)</f>
         <v xml:space="preserve">[ADDITIONAL INFORMATION]
 The arrangement of the event may be adjusted to accommodate the number of participants.
@@ -1280,37 +1433,37 @@
 Cancellation made more than 14 days from event: Refund 75% of ticket price
 Cancellation made more than  07 days from event: Refund 50% of ticket price
 Cancellation made more than 72 hour from event: Refund 10% of ticket price
-Note: Refunds will include the ticket price less the Ticketing Fees (which consist of the platform's payment processing fee and the service fee combined) 
+Note: Refunds will include the ticket price less the Ticketing Fees, i.e, Refund = ticket price - ticketing fees  
 No Refund: 
 For cancellation less than 72 hrs from event
 For participants who don't meet the event's requirements
 Full refund: 
 Event cancelled by organisor.
-In the event of significant changes, such as alterations to the location. Important to note that attendees have a 48-hour window to respond to these changes. In addition, no refunds will be provided for changes explicitly highlighted and expected in advance.
+In the event of significant changes, such as alterations to the location. Important to note that attendees have a 48-hour window to respond to these changes.
 Please allow up to 3 business days for the refund. 
 </v>
       </c>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="14"/>
-      <c r="C3" s="17"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="312" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="18"/>
+        <v>106</v>
+      </c>
+      <c r="C4" s="32"/>
     </row>
     <row r="5" spans="1:5" ht="285" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C5" s="3"/>
     </row>
@@ -1336,9 +1489,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,16 +1517,16 @@
         <v>39</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
@@ -1473,15 +1626,15 @@
         <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>37</v>
@@ -1493,15 +1646,15 @@
         <v>22</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="225" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>24</v>
@@ -1513,18 +1666,18 @@
         <v>27</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="10"/>
@@ -1538,10 +1691,10 @@
     <row r="8" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -1574,107 +1727,529 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="D3" s="13"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="D6" s="13"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="D7" s="13"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="13"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="13"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
-        <f>CONCATENATE(A2,A3,A4,A5,A6,A7,A8,A9,A10)</f>
-        <v>msppsm@hotmail.com;ye3wei@gmail.com;limxinwei82@gmail.com;annannchin@gmail.com;chinjiahui90@hotmail.com;herlynd@gmail.com;calvintay93@hotmail.com;yamamoto.96@hotmail.com;quaaludes81@hotmail.com;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>1</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="26">
+        <v>1</v>
+      </c>
+      <c r="D3" s="17">
+        <v>1</v>
+      </c>
+      <c r="E3" s="27">
+        <f t="shared" ref="E3:E5" si="0">ROUNDUP($C$1*D3/C3,0)</f>
+        <v>10</v>
+      </c>
+      <c r="F3" s="18">
+        <v>5.8</v>
+      </c>
+      <c r="G3" s="20">
+        <f t="shared" ref="G3" si="1">F3*E3*1.1*1.09</f>
+        <v>69.542000000000016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>2</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="26">
+        <v>1</v>
+      </c>
+      <c r="D4" s="17">
+        <v>1</v>
+      </c>
+      <c r="E4" s="27">
+        <f t="shared" ref="E4" si="2">ROUNDUP($C$1*D4/C4,0)</f>
+        <v>10</v>
+      </c>
+      <c r="F4" s="18">
+        <v>10.8</v>
+      </c>
+      <c r="G4" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>2</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="26">
+        <v>8</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1</v>
+      </c>
+      <c r="E5" s="27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F5" s="18">
+        <v>14.8</v>
+      </c>
+      <c r="G5" s="20">
+        <f t="shared" ref="G5:G7" si="3">F5*E5*1.1*1.09</f>
+        <v>35.490400000000008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>2</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="26">
+        <v>8</v>
+      </c>
+      <c r="D6" s="17">
+        <v>1</v>
+      </c>
+      <c r="E6" s="27">
+        <f t="shared" ref="E6:E7" si="4">ROUNDUP($C$1*D6/C6,0)</f>
+        <v>2</v>
+      </c>
+      <c r="F6" s="18">
+        <v>14.8</v>
+      </c>
+      <c r="G6" s="20">
+        <f t="shared" si="3"/>
+        <v>35.490400000000008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>2</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="26">
+        <v>8</v>
+      </c>
+      <c r="D7" s="17">
+        <v>1</v>
+      </c>
+      <c r="E7" s="27">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F7" s="18">
+        <v>14.8</v>
+      </c>
+      <c r="G7" s="20">
+        <f t="shared" si="3"/>
+        <v>35.490400000000008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>3</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="26">
+        <v>4</v>
+      </c>
+      <c r="D8" s="17">
+        <v>2</v>
+      </c>
+      <c r="E8" s="27">
+        <f>ROUNDUP($C$1*D8/C8,0)</f>
+        <v>5</v>
+      </c>
+      <c r="F8" s="18">
+        <v>7.8</v>
+      </c>
+      <c r="G8" s="20">
+        <f>F8*E8*1.1*1.09</f>
+        <v>46.76100000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>3</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="26">
+        <v>6</v>
+      </c>
+      <c r="D9" s="17">
+        <v>2</v>
+      </c>
+      <c r="E9" s="27">
+        <f>ROUNDUP($C$1*D9/C9,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F9" s="18">
+        <v>7.8</v>
+      </c>
+      <c r="G9" s="20">
+        <f t="shared" ref="G9:G13" si="5">F9*E9*1.1*1.09</f>
+        <v>37.408800000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>3</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="26">
+        <v>6</v>
+      </c>
+      <c r="D10" s="17">
+        <v>2</v>
+      </c>
+      <c r="E10" s="27">
+        <f t="shared" ref="E10:E14" si="6">ROUNDUP($C$1*D10/C10,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F10" s="18">
+        <v>6.8</v>
+      </c>
+      <c r="G10" s="20">
+        <f t="shared" si="5"/>
+        <v>32.612800000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>4</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="25">
+        <v>4</v>
+      </c>
+      <c r="D11" s="17">
+        <v>1</v>
+      </c>
+      <c r="E11" s="27">
+        <f>ROUNDUP($C$1*D11/C11,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F11" s="18">
+        <v>20.8</v>
+      </c>
+      <c r="G11" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>4</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="25">
+        <v>5</v>
+      </c>
+      <c r="D12" s="17">
+        <v>2</v>
+      </c>
+      <c r="E12" s="27">
+        <f>ROUNDUP($C$1*D12/C12,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F12" s="18">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G12" s="20">
+        <f>F12*E12*1.1*1.09</f>
+        <v>47.000800000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>5</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="25">
+        <v>2</v>
+      </c>
+      <c r="D13" s="17">
+        <v>1</v>
+      </c>
+      <c r="E13" s="27">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="F13" s="18">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G13" s="20">
+        <f t="shared" si="5"/>
+        <v>58.751000000000012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>6</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="26">
+        <v>1</v>
+      </c>
+      <c r="D14" s="17">
+        <v>1</v>
+      </c>
+      <c r="E14" s="27">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="F14" s="18">
+        <v>1</v>
+      </c>
+      <c r="G14" s="20">
+        <f>F14*E14</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="17"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="17"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="17"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="20">
+        <f>SUM(G3:G14)/C1</f>
+        <v>40.854760000000013</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="17"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="16">
+        <v>96970943</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="16"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="16"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="16"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>CONCATENATE(A2,A3,A4,A5,A6,A7,A8,A9,A10,A11)</f>
+        <v>msppsm@hotmail.com;ye3wei@gmail.com;limxinwei82@gmail.com;annannchin@gmail.com;chinjiahui90@hotmail.com;herlynd@gmail.com;calvintay93@hotmail.com;yamamoto.96@hotmail.com;tuinkuanpoh@gmail.com;quaaludes81@hotmail.com;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A10" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/event excel.xlsx
+++ b/event excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="impt" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="110">
   <si>
     <t>IMPORTANT</t>
   </si>
@@ -567,6 +567,38 @@
   </si>
   <si>
     <t>5 kind sushi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[IMPORTANT. PLEASE READ]
+- This event will only Proceed when the number of attendees has reached and the gender ratio are relatively balanced. 
+- Registered attendees, please look up for our email for updates 3 to 5 days prior to the event.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[CANCELLATION &amp; REFUND] 
+NOTE: Please contact us directly.
+Cancellation made more than 21 days from event: Refund 100% of ticket price
+Cancellation made more than 14 days from event: Refund 75% of ticket price
+Cancellation made more than  07 days from event: Refund 50% of ticket price
+Cancellation made more than 72 hour from event: Refund 10% of ticket price
+Note: Refunds will include the ticket price less the Ticketing Fees, i.e, Refund = ticket price - ticketing fees  
+No Refund: 
+For cancellation less than 72 hrs from event
+For participants who don't meet the event's requirements
+Full refund: 
+Event cancelled by organisor.
+In the event of significant changes, such as alterations to the location. Important to note that attendees have a 48-hour window to respond to these changes.
+Please allow up to 3 business days for the refund. 
+</t>
+  </si>
+  <si>
+    <t>JUN DONG NG</t>
+  </si>
+  <si>
+    <t>endynjd@gmail.com;</t>
+  </si>
+  <si>
+    <t>msppsm@hotmail.com;ye3wei@gmail.com;limxinwei82@gmail.com;annannchin@gmail.com;chinjiahui90@hotmail.com;herlynd@gmail.com;calvintay93@hotmail.com;yamamoto.96@hotmail.com;tuinkuanpoh@gmail.com;endynjd@gmail.com;quaaludes81@hotmail.com;</t>
   </si>
   <si>
     <r>
@@ -596,7 +628,7 @@
 Event Summary:
 Whether you are a weekend cyclist, or a half-marathon hopeful, come and connect with someone who enjoys sports as much as you do. 
 [EVENT]
-- Dinner includes starters, sushi, yakitori, mains, sides and dessert (plain water is provided)
+- Dinner includes choice of starters, mains, sides, choice of free flow tea/soft drink
 - We anticipate an attendance of 5-6 participants.
 [REQUIREMENT]
 For ladies age 28 - 45.
@@ -605,12 +637,6 @@
 Participants are to present proof of the abovementioned requirements (eg, Singpass). 
 </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">[IMPORTANT. PLEASE READ]
-- This event will only Proceed when the number of attendees has reached and the gender ratio are relatively balanced. 
-- Registered attendees, please look up for our email for updates 3 to 5 days prior to the event.
-</t>
   </si>
   <si>
     <r>
@@ -640,7 +666,7 @@
 Event Summary:
 Love arts, music, film? Share fave band, Netflix picks, Latin dance styles, and more! 
 [EVENT]
-- Dinner includes starters, sushi, yakitori, mains, sides and dessert (plain water is provided)
+- Dinner includes choice of starters, mains, sides, choice of free flow tea/soft drink
 - We anticipate an attendance of 5-6 participants.
 [REQUIREMENT]
 For ladies age 28 - 45.
@@ -649,23 +675,6 @@
 Participants are to present proof of the abovementioned requirements (eg, Singpass). 
 </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">[CANCELLATION &amp; REFUND] 
-NOTE: Please contact us directly.
-Cancellation made more than 21 days from event: Refund 100% of ticket price
-Cancellation made more than 14 days from event: Refund 75% of ticket price
-Cancellation made more than  07 days from event: Refund 50% of ticket price
-Cancellation made more than 72 hour from event: Refund 10% of ticket price
-Note: Refunds will include the ticket price less the Ticketing Fees, i.e, Refund = ticket price - ticketing fees  
-No Refund: 
-For cancellation less than 72 hrs from event
-For participants who don't meet the event's requirements
-Full refund: 
-Event cancelled by organisor.
-In the event of significant changes, such as alterations to the location. Important to note that attendees have a 48-hour window to respond to these changes.
-Please allow up to 3 business days for the refund. 
-</t>
   </si>
 </sst>
 </file>
@@ -876,7 +885,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -913,6 +921,7 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1232,7 +1241,7 @@
     </row>
     <row r="2" spans="1:4" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="28" t="str">
         <f>CONCATENATE(A2,A6)</f>
@@ -1275,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,7 +1373,7 @@
         <v>45</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>35</v>
@@ -1373,7 +1382,7 @@
     <row r="3" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -1399,7 +1408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -1454,7 +1463,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C4" s="32"/>
     </row>
@@ -1490,8 +1499,8 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1735,374 +1744,374 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="3.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="23">
+      <c r="C1" s="22">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="25">
         <v>1</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="16">
         <v>1</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="26">
         <f t="shared" ref="E3:E5" si="0">ROUNDUP($C$1*D3/C3,0)</f>
         <v>10</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="17">
         <v>5.8</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="19">
         <f t="shared" ref="G3" si="1">F3*E3*1.1*1.09</f>
         <v>69.542000000000016</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="25">
         <v>1</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="16">
         <v>1</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="26">
         <f t="shared" ref="E4" si="2">ROUNDUP($C$1*D4/C4,0)</f>
         <v>10</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="17">
         <v>10.8</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>2</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="25">
         <v>8</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <v>1</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="26">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="17">
         <v>14.8</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="19">
         <f t="shared" ref="G5:G7" si="3">F5*E5*1.1*1.09</f>
         <v>35.490400000000008</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="25">
         <v>8</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <v>1</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="26">
         <f t="shared" ref="E6:E7" si="4">ROUNDUP($C$1*D6/C6,0)</f>
         <v>2</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="17">
         <v>14.8</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="19">
         <f t="shared" si="3"/>
         <v>35.490400000000008</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>2</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="25">
         <v>8</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="16">
         <v>1</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="26">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="17">
         <v>14.8</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="19">
         <f t="shared" si="3"/>
         <v>35.490400000000008</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="16">
         <v>3</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="25">
         <v>4</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="16">
         <v>2</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="26">
         <f>ROUNDUP($C$1*D8/C8,0)</f>
         <v>5</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="17">
         <v>7.8</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="19">
         <f>F8*E8*1.1*1.09</f>
         <v>46.76100000000001</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="A9" s="16">
         <v>3</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="25">
         <v>6</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="16">
         <v>2</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="26">
         <f>ROUNDUP($C$1*D9/C9,0)</f>
         <v>4</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="17">
         <v>7.8</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="19">
         <f t="shared" ref="G9:G13" si="5">F9*E9*1.1*1.09</f>
         <v>37.408800000000006</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+      <c r="A10" s="16">
         <v>3</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="25">
         <v>6</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="16">
         <v>2</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="26">
         <f t="shared" ref="E10:E14" si="6">ROUNDUP($C$1*D10/C10,0)</f>
         <v>4</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="17">
         <v>6.8</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="19">
         <f t="shared" si="5"/>
         <v>32.612800000000007</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+      <c r="A11" s="16">
         <v>4</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="24">
         <v>4</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="16">
         <v>1</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="26">
         <f>ROUNDUP($C$1*D11/C11,0)</f>
         <v>3</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="17">
         <v>20.8</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="24">
         <v>5</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <v>2</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="26">
         <f>ROUNDUP($C$1*D12/C12,0)</f>
         <v>4</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="17">
         <v>9.8000000000000007</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="19">
         <f>F12*E12*1.1*1.09</f>
         <v>47.000800000000005</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+      <c r="A13" s="16">
         <v>5</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="24">
         <v>2</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="16">
         <v>1</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="26">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="17">
         <v>9.8000000000000007</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="19">
         <f t="shared" si="5"/>
         <v>58.751000000000012</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+      <c r="A14" s="16">
         <v>6</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="25">
         <v>1</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="16">
         <v>1</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="26">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="17">
         <v>1</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="19">
         <f>F14*E14</f>
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="17"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="20"/>
+      <c r="C15" s="16"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="19"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="17"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="20"/>
+      <c r="C16" s="16"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="19"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="17"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="20" t="s">
+      <c r="C17" s="16"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="19">
         <f>SUM(G3:G14)/C1</f>
         <v>40.854760000000013</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="17"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="20"/>
+      <c r="C18" s="16"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2115,7 +2124,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2138,7 +2147,9 @@
       <c r="B2" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="15">
+        <v>93418665</v>
+      </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
@@ -2149,7 +2160,9 @@
       <c r="B3" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="15">
+        <v>92399830</v>
+      </c>
       <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2159,8 +2172,8 @@
       <c r="B4" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="16">
-        <v>96970943</v>
+      <c r="C4" s="15">
+        <v>96870943</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2172,7 +2185,9 @@
       <c r="B5" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="16"/>
+      <c r="C5" s="15">
+        <v>83226228</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
     </row>
@@ -2183,7 +2198,9 @@
       <c r="B6" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="16"/>
+      <c r="C6" s="15">
+        <v>97327321</v>
+      </c>
       <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2193,7 +2210,7 @@
       <c r="B7" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>72</v>
       </c>
       <c r="E7" s="13"/>
@@ -2205,7 +2222,9 @@
       <c r="B8" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="16"/>
+      <c r="C8" s="15">
+        <v>82882523</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -2214,42 +2233,55 @@
       <c r="B9" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="16"/>
+      <c r="C9" s="15">
+        <v>96735295</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="15">
+        <v>81250827</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="16"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
-        <f>CONCATENATE(A2,A3,A4,A5,A6,A7,A8,A9,A10,A11)</f>
-        <v>msppsm@hotmail.com;ye3wei@gmail.com;limxinwei82@gmail.com;annannchin@gmail.com;chinjiahui90@hotmail.com;herlynd@gmail.com;calvintay93@hotmail.com;yamamoto.96@hotmail.com;tuinkuanpoh@gmail.com;quaaludes81@hotmail.com;</v>
-      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>CONCATENATE(A2,A3,A4,A5,A6,A7,A8,A9,A10,A11,A12)</f>
+        <v>msppsm@hotmail.com;ye3wei@gmail.com;limxinwei82@gmail.com;annannchin@gmail.com;chinjiahui90@hotmail.com;herlynd@gmail.com;calvintay93@hotmail.com;yamamoto.96@hotmail.com;tuinkuanpoh@gmail.com;endynjd@gmail.com;quaaludes81@hotmail.com;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
+      <c r="A18" s="13" t="s">
+        <v>107</v>
+      </c>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>